--- a/Results/LinearRegressionResults_jan262025.xlsx
+++ b/Results/LinearRegressionResults_jan262025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kx2\Documents\kxu\Acoustic-Touchscreen-Attachment-ML\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD4D1A09-30BB-44F8-A365-CD32BD5D424B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588B3C9D-CA5F-4965-AE4C-232EFE0DB6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,28 +30,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -120,6 +98,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>X-Axis Regression Results</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -180,11 +183,81 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.67E-2</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.67E-2</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$1:$A$200</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="200"/>
                 <c:pt idx="0">
                   <c:v>0.3</c:v>
@@ -307,64 +380,64 @@
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.89999999999999991</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.89999999999999991</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.89999999999999991</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.89999999999999991</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.89999999999999991</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.89999999999999991</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.89999999999999991</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.89999999999999991</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.89999999999999991</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.89999999999999991</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.89999999999999991</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.89999999999999991</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.89999999999999991</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.89999999999999991</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.89999999999999991</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.89999999999999991</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.89999999999999991</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.89999999999999991</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.89999999999999991</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.89999999999999991</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>1.2</c:v>
@@ -667,64 +740,64 @@
                   <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>2.6999999999999997</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>2.6999999999999997</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>2.6999999999999997</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>2.6999999999999997</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>2.6999999999999997</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>2.6999999999999997</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>2.6999999999999997</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>2.6999999999999997</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>2.6999999999999997</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>2.6999999999999997</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>2.6999999999999997</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>2.6999999999999997</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>2.6999999999999997</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>2.6999999999999997</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>2.6999999999999997</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>2.6999999999999997</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>2.6999999999999997</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>2.6999999999999997</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>2.6999999999999997</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>2.6999999999999997</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="180">
                   <c:v>3</c:v>
@@ -796,604 +869,604 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="200"/>
                 <c:pt idx="0">
-                  <c:v>1.8947967113131841</c:v>
+                  <c:v>0.56843901339394565</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.882311652813641</c:v>
+                  <c:v>0.56469349584412543</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8491014053104351</c:v>
+                  <c:v>0.55473042159317432</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1790349967165308</c:v>
+                  <c:v>0.65371049901494205</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0926241373839432</c:v>
+                  <c:v>0.62778724121514928</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8825567632023661</c:v>
+                  <c:v>0.56476702896062791</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.748549616372614</c:v>
+                  <c:v>0.52456488491177966</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.7625713762053219</c:v>
+                  <c:v>0.52877141286155593</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.871725374813231</c:v>
+                  <c:v>0.56151761244400022</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.0030640358688672</c:v>
+                  <c:v>0.60091921076062293</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.044789231633509</c:v>
+                  <c:v>0.31343676949002891</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.62414689267014722</c:v>
+                  <c:v>0.187244067800997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.75827699294922013</c:v>
+                  <c:v>0.2274830978847828</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.029917295576148</c:v>
+                  <c:v>0.30897518867281137</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.64945992539058039</c:v>
+                  <c:v>0.19483797761719451</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.7873576018438726</c:v>
+                  <c:v>0.2362072805531423</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.0029342630242579</c:v>
+                  <c:v>0.30088027890723668</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.93318147132406892</c:v>
+                  <c:v>0.27995444139722331</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.64584412462738072</c:v>
+                  <c:v>0.19375323738820119</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.817601912532254</c:v>
+                  <c:v>0.24528057375967591</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.9566947882070811</c:v>
+                  <c:v>0.58700843646209977</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.1931944310195561</c:v>
+                  <c:v>0.65795832930587084</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.1649757393458562</c:v>
+                  <c:v>0.64949272180369322</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.06373644276551</c:v>
+                  <c:v>0.6191209328295888</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.9414600987248389</c:v>
+                  <c:v>0.58243802961748203</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.0864991001421132</c:v>
+                  <c:v>0.62594973004260668</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.0359646315951072</c:v>
+                  <c:v>0.61078938947858008</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.9829347661548411</c:v>
+                  <c:v>0.59488042984642364</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.1134475124901542</c:v>
+                  <c:v>0.63403425374701117</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.1543943288661471</c:v>
+                  <c:v>0.64631829865982526</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.1966809901830331</c:v>
+                  <c:v>0.95900429705489332</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.9581075211565699</c:v>
+                  <c:v>0.88743225634696588</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.0456665663427671</c:v>
+                  <c:v>0.91369996990282276</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.8919321114418248</c:v>
+                  <c:v>0.86757963343249545</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.271843552847173</c:v>
+                  <c:v>0.98155306585420421</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.072003645099358</c:v>
+                  <c:v>0.92160109352983755</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.0412947339639662</c:v>
+                  <c:v>0.91238842018914967</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.966298508125774</c:v>
+                  <c:v>0.88988955243766954</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.1096745808700419</c:v>
+                  <c:v>0.93290237426092704</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.9604993394159611</c:v>
+                  <c:v>0.88814980182477443</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.202150438222688</c:v>
+                  <c:v>0.96064513146681252</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.1514930456741439</c:v>
+                  <c:v>0.94544791370215053</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.9778915480949451</c:v>
+                  <c:v>0.89336746442849391</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.162994133318719</c:v>
+                  <c:v>0.94889823999557921</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.075684322476782</c:v>
+                  <c:v>0.92270529674298674</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.1712798173272181</c:v>
+                  <c:v>0.95138394519820269</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.1216310551505728</c:v>
+                  <c:v>0.9364893165452135</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.2341524982043448</c:v>
+                  <c:v>0.9702457494612351</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.823496995810721</c:v>
+                  <c:v>0.84704909874326662</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.0086459439183528</c:v>
+                  <c:v>0.9025937831755404</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.7694934757429048</c:v>
+                  <c:v>0.83084804272281021</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.852176228630007</c:v>
+                  <c:v>0.85565286858902612</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.8812559938057158</c:v>
+                  <c:v>0.86437679814162438</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.9476837181155702</c:v>
+                  <c:v>0.88430511543464307</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.9964070301063899</c:v>
+                  <c:v>0.89892210903184067</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.883106277770096</c:v>
+                  <c:v>0.86493188333097182</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.778184917482442</c:v>
+                  <c:v>0.83345547524466257</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.6701752810343962</c:v>
+                  <c:v>0.80105258431036619</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.8778289131671571</c:v>
+                  <c:v>0.86334867395013548</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.8003808851003309</c:v>
+                  <c:v>0.84011426553007995</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4.1571600634908634</c:v>
+                  <c:v>1.2471480190471851</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4.193974436340163</c:v>
+                  <c:v>1.2581923309020311</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3.96809085000401</c:v>
+                  <c:v>1.19042725500125</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4.1237115649511367</c:v>
+                  <c:v>1.237113469485277</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4.1902182029206259</c:v>
+                  <c:v>1.25706546087611</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4.3333353535480512</c:v>
+                  <c:v>1.300000606064416</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4.1076974414129097</c:v>
+                  <c:v>1.2323092324238341</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4.3066345799450048</c:v>
+                  <c:v>1.2919903739835059</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4.1555506397236073</c:v>
+                  <c:v>1.246665191917085</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4.3304965430589064</c:v>
+                  <c:v>1.2991489629176101</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4.0474757935394896</c:v>
+                  <c:v>1.2142427380617919</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3.9383846383562759</c:v>
+                  <c:v>1.181515391506871</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3.8576143295299228</c:v>
+                  <c:v>1.157284298858916</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4.0139937221299462</c:v>
+                  <c:v>1.2041981166389319</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3.8508844484174598</c:v>
+                  <c:v>1.1552653345252291</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3.8035577419134441</c:v>
+                  <c:v>1.1410673225739321</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3.9905794437614688</c:v>
+                  <c:v>1.1971738331283861</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4.0833828801951313</c:v>
+                  <c:v>1.225014864058505</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3.885057015029219</c:v>
+                  <c:v>1.16551710450872</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3.9094108632983828</c:v>
+                  <c:v>1.1728232589894929</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>5.1459683508580767</c:v>
+                  <c:v>1.543790505257338</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4.9501347606063177</c:v>
+                  <c:v>1.4850404281818941</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4.9886153975573961</c:v>
+                  <c:v>1.4965846192671719</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.7457692036289876</c:v>
+                  <c:v>1.4237307610887351</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.9818165498573208</c:v>
+                  <c:v>1.494544964957172</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.9876044973358802</c:v>
+                  <c:v>1.496281349200701</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.9598567972573022</c:v>
+                  <c:v>1.48795703917704</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4.692886848350966</c:v>
+                  <c:v>1.4078660545053061</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4.9491987472865802</c:v>
+                  <c:v>1.4847596241859451</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>4.8856927129870664</c:v>
+                  <c:v>1.4657078138960891</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>5.022653896730553</c:v>
+                  <c:v>1.5067961690191081</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>5.1144842214123827</c:v>
+                  <c:v>1.534345266423714</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>4.9422931856217014</c:v>
+                  <c:v>1.4826879556864589</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>4.888315101047894</c:v>
+                  <c:v>1.4664945303143431</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>5.1170271376092771</c:v>
+                  <c:v>1.535108141282759</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>5.1050751683822071</c:v>
+                  <c:v>1.531522550514584</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>5.0018077106883956</c:v>
+                  <c:v>1.500542313206495</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>5.0219261566470186</c:v>
+                  <c:v>1.506577846994116</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4.931090116762185</c:v>
+                  <c:v>1.479327035028682</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>4.5881656570506593</c:v>
+                  <c:v>1.376449697115206</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>6.178887864651962</c:v>
+                  <c:v>1.85366635939554</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>6.2589501818795767</c:v>
+                  <c:v>1.8776850545638131</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>6.1650500798147831</c:v>
+                  <c:v>1.8495150239443809</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>6.3427672342921886</c:v>
+                  <c:v>1.9028301702876369</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>6.1711081345100141</c:v>
+                  <c:v>1.8513324403529841</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>6.1962277259862546</c:v>
+                  <c:v>1.8588683177957821</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>6.2794590377624999</c:v>
+                  <c:v>1.883837711328717</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>6.0891505817247449</c:v>
+                  <c:v>1.826745174517395</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>6.1117957072513533</c:v>
+                  <c:v>1.833538712175401</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>5.9917581989153126</c:v>
+                  <c:v>1.7975274596744839</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>6.374707576702356</c:v>
+                  <c:v>1.912412273010645</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>6.382763753770881</c:v>
+                  <c:v>1.914829126131167</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>6.4266850653664784</c:v>
+                  <c:v>1.928005519609947</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>6.3111180408575294</c:v>
+                  <c:v>1.893335412257205</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>6.4092400338725</c:v>
+                  <c:v>1.9227720101616479</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>6.3868233401187169</c:v>
+                  <c:v>1.916047002035576</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>6.3539521843456228</c:v>
+                  <c:v>1.906185655303628</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>6.4003587033856144</c:v>
+                  <c:v>1.920107611015706</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>6.5148033710470017</c:v>
+                  <c:v>1.9544410113140249</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>6.2052658444829589</c:v>
+                  <c:v>1.8615797533447711</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>7.0849940006910757</c:v>
+                  <c:v>2.1254982002073222</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>7.0656446889217861</c:v>
+                  <c:v>2.119693406676423</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>7.1138515417267101</c:v>
+                  <c:v>2.1341554625179642</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>7.2125760201562557</c:v>
+                  <c:v>2.163772806046862</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>6.98988594486746</c:v>
+                  <c:v>2.096965783460214</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>6.9846560188742686</c:v>
+                  <c:v>2.095396805662276</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>6.9978137068833854</c:v>
+                  <c:v>2.0993441120650229</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>7.3208310118484192</c:v>
+                  <c:v>2.196249303554481</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>6.9703669383756122</c:v>
+                  <c:v>2.091110081512586</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>7.1387295176935552</c:v>
+                  <c:v>2.141618855308054</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>6.5896611090490254</c:v>
+                  <c:v>1.976898332714673</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>6.5445999598099647</c:v>
+                  <c:v>1.9633799879428899</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>6.5894168544383902</c:v>
+                  <c:v>1.9768250563314249</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>6.1723838985579889</c:v>
+                  <c:v>1.8517151695673391</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>6.6706870700055063</c:v>
+                  <c:v>2.001206121001637</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>6.0644826203729778</c:v>
+                  <c:v>1.819344786111796</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>6.0697493481477034</c:v>
+                  <c:v>1.8209248044442861</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>6.4545093805581288</c:v>
+                  <c:v>1.9363528141673469</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>6.4571363306570566</c:v>
+                  <c:v>1.937140899197058</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>6.1578483186885862</c:v>
+                  <c:v>1.8473544956065211</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>8.1903340663230537</c:v>
+                  <c:v>2.457100219896784</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>8.0855189569976957</c:v>
+                  <c:v>2.4256556870991841</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>8.0792045698148982</c:v>
+                  <c:v>2.4237613709443129</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>8.2583315884812052</c:v>
+                  <c:v>2.4774994765442528</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>8.0383208234922776</c:v>
+                  <c:v>2.4114962470475558</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>8.0408757571070097</c:v>
+                  <c:v>2.4122627271320738</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>8.1484793436202594</c:v>
+                  <c:v>2.4445438030860531</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>7.9892896504599022</c:v>
+                  <c:v>2.3967868951379039</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>8.2805175243804214</c:v>
+                  <c:v>2.4841552573140899</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>8.3407910387344018</c:v>
+                  <c:v>2.5022373116202492</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>7.7017213490914216</c:v>
+                  <c:v>2.310516404727335</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>7.7612456640031198</c:v>
+                  <c:v>2.328373699200907</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>7.8033726962894363</c:v>
+                  <c:v>2.3410118088868188</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>7.9155052583843784</c:v>
+                  <c:v>2.3746515775152521</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>7.7265716118836067</c:v>
+                  <c:v>2.317971483565004</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>7.5407969623900968</c:v>
+                  <c:v>2.262239088717064</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>7.5071024153344297</c:v>
+                  <c:v>2.2521307246003208</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>7.6340807972719986</c:v>
+                  <c:v>2.2902242391815482</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>7.4147343973930546</c:v>
+                  <c:v>2.22442031921786</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>7.6811494257433424</c:v>
+                  <c:v>2.304344827722919</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>8.1343795240932124</c:v>
+                  <c:v>2.4403138572279239</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>8.2056740255343428</c:v>
+                  <c:v>2.4617022076602462</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>8.2219822396191304</c:v>
+                  <c:v>2.4665946718856522</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>8.3397362410526128</c:v>
+                  <c:v>2.5019208723158148</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>8.1680845626721563</c:v>
+                  <c:v>2.450425368801703</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>8.2599859579041848</c:v>
+                  <c:v>2.4779957873712419</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>8.2449049141860726</c:v>
+                  <c:v>2.4734714742557888</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>8.526409751658143</c:v>
+                  <c:v>2.5579229254973228</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>8.5253893903011786</c:v>
+                  <c:v>2.5576168170903171</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>8.4329911734779373</c:v>
+                  <c:v>2.5298973520433639</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>8.5171725246391432</c:v>
+                  <c:v>2.5551517573916809</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>8.5767266304759531</c:v>
+                  <c:v>2.5730179891427518</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>8.6024928648184797</c:v>
+                  <c:v>2.5807478594453461</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>8.4502336500184683</c:v>
+                  <c:v>2.5350700950055729</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>8.5447844963844162</c:v>
+                  <c:v>2.563435348915295</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>8.5685237221062422</c:v>
+                  <c:v>2.5705571166318362</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>8.6890706762184564</c:v>
+                  <c:v>2.6067212028655402</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>8.6828511297656306</c:v>
+                  <c:v>2.6048553389296321</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>8.6527159175970283</c:v>
+                  <c:v>2.5958147752791061</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>8.7353197804964324</c:v>
+                  <c:v>2.6205959341489451</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>9.8518016510348545</c:v>
+                  <c:v>2.955540495310494</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>9.8923971356777614</c:v>
+                  <c:v>2.967719140703295</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>9.8895872953412507</c:v>
+                  <c:v>2.966876188602285</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>9.8473682919414003</c:v>
+                  <c:v>2.9542104875823232</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>9.935871482168956</c:v>
+                  <c:v>2.9807614446506081</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>9.8540681326737385</c:v>
+                  <c:v>2.9562204398019931</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>9.9814412297668937</c:v>
+                  <c:v>2.994432368930064</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>9.883729392427135</c:v>
+                  <c:v>2.96511881772813</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>9.9132633111702901</c:v>
+                  <c:v>2.9739789933510581</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>9.8797973072764975</c:v>
+                  <c:v>2.963939192182889</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>9.9836584678394686</c:v>
+                  <c:v>2.9950975403518112</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>9.9079765447442796</c:v>
+                  <c:v>2.9723929634232542</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>9.9120337525101903</c:v>
+                  <c:v>2.9736101257530159</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>10.224515197814251</c:v>
+                  <c:v>3.067354559344377</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>10.026989968460789</c:v>
+                  <c:v>3.0080969905381778</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>10.188724292018939</c:v>
+                  <c:v>3.0566172876055981</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>10.209447307111009</c:v>
+                  <c:v>3.0628341921332809</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>10.05046455841542</c:v>
+                  <c:v>3.0151393675246858</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>10.16845663592661</c:v>
+                  <c:v>3.0505369907779292</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>10.042258394471871</c:v>
+                  <c:v>3.01267751834148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1401,7 +1474,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-43C9-4083-8AD9-981311E876AB}"/>
+              <c16:uniqueId val="{00000000-DCDC-4909-A06C-646431F6807E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1413,11 +1486,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1304419439"/>
-        <c:axId val="1304420879"/>
+        <c:axId val="651171824"/>
+        <c:axId val="651169904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1304419439"/>
+        <c:axId val="651171824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1438,6 +1511,31 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Actual Distance (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1467,7 +1565,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1504,12 +1602,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1304420879"/>
+        <c:crossAx val="651169904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1304420879"/>
+        <c:axId val="651169904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1530,6 +1628,31 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Predicted Distance (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1596,7 +1719,1699 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1304419439"/>
+        <c:crossAx val="651171824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Y-Axis Regression Results</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.127</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.127</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$W$1:$W$200</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$X$1:$X$200</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>0.79150601309135027</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69789269057566727</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78616087634320664</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67939109871823788</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62376472926576909</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.51885678946950264</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.66631858964484891</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5804599192392601</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.42947944215362449</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.59501400711134877</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.057529471809374</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.108701827562246</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1019429871399249</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1483291376832729</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.89863327677008087</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.136202954131075</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.69811624010608497</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.80328718391260878</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.074422433762777</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0284183274475791</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.59978138429177719</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.1511620892211029E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.20052959876450061</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.17346813165196551</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.180525598588126</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.18719518539162999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.13096979860704749</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.15454511742889571</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.30976229547496459</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.0203202116609447E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.93273949681154988</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.85234980794420778</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.1017996425586141</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.138378086056903</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.295872863233924</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.186530852392085</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.013031400310894</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.045892473986356</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.7029258698682348</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.78984083263764404</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.95098841498959175</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.0108202085459941</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.68362159946320844</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.7625278568458711</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.8773543961421062</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.80084331733494452</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.92916555858261063</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.58837378703029586</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.038219870725452</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.75004292449701992</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.3106476606510109</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.9906773153830386</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.107656579540631</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.059807984684934</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.150224633203734</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.219947826481921</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.0837033547023469</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.195788847085151</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.1825143895740311</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.152527767302743</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.615782601374999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.1165576403817179</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.2941173103903689</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.080237391250201</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.22315439756682</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.526982520058382</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.236376935901575</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.506861648408353</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.1757570967378901</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.2415374841694169</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.30752795449806</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.492064255859997</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.4920241858704979</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.6959116782375749</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.5241938081002111</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.3846610524106211</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.567927566396911</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.62307046555371</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.640541278780717</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.7936293697716901</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.375367179398165</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.076378566773734</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.1208458635539811</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.115554344740612</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.92189858644283973</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.181728143028089</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.98887309263700729</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.88411599837981569</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.269507138835223</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.2679851487137379</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.4823857470923021</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.669510186561322</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.234121617435491</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.48872273036741</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.595020732013555</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.4423940524205681</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.6700869015027671</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.624148553785794</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.498227596581202</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.407261232769873</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.41963956941321</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.419749158825425</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.4062010564862819</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.8382891418610221</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.5271289539923321</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.429900595040259</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.0770649084410979</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.5999370261732899</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.4718374330706081</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.3576554466052679</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.287080299857557</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.605865750892598</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.362432211184281</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.768008962246171</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.766504297608716</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.4243613810475679</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.286279174808403</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2.0372585326872499</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.605287974220907</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.4615526153957601</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.841479040450142</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2.2591890443883642</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.855477668560731</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.924330774586803</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2.058940129450495</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2.2159444387015981</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2.0475905539790382</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2.2044414753873589</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.9512075779251501</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2.0838222151638282</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.9581130501676469</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2.406773056818889</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2.193023091797798</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2.174123980245668</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2.3945028109180271</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2.6076823883383109</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.9094399201103021</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2.0806867941145062</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2.2465578710419578</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.964930248511457</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2.7282774073865959</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2.3407836853056661</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2.9843127490957322</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2.724797025221406</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2.6936604246485309</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2.8217540037894189</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2.7903034912847922</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2.779826763116414</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2.6021650651475952</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2.67621538833717</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2.676461841669223</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2.4664402757853132</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>3.0199837598404322</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2.7629088363091761</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2.6073335523317742</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2.6623119829482391</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2.8440223000233722</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2.8021314692698809</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2.8929123697907362</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2.586423883365228</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2.549331558291652</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>3.071134617464939</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>3.0418559603016528</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>3.0399283574876041</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2.7597589697028622</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2.802560574378592</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2.9265273195778039</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2.7935730981296172</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2.6506177906543802</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>3.1288372853608339</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2.4540534914368699</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2.2853531496222139</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2.4118962686896421</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2.4521363664428582</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2.4181131506189222</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2.3363850371926418</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2.5925538517157669</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2.4344335265316239</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2.4685868973185978</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2.1833808699577131</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2.6178440696395242</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2.5869242999683379</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2.9029106756176968</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2.6639536751443491</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2.6593879449617219</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2.5900386497855439</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2.0746816362931848</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2.7362950884263171</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>2.6189491377148069</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>2.845463410278239</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2.705149689900153</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>2.8650038714483341</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>2.90882099396983</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>2.8273890972780289</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>2.599414617554018</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>2.445360807806896</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>2.622871238230605</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>2.8231288886229109</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>2.5855119821045069</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>2.5715616573961988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6CFB-4302-8671-4F96CFAC5D38}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="490449776"/>
+        <c:axId val="490445456"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="490449776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Actual Distance (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="490445456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="490445456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Predicted Distance (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="490449776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1653,6 +3468,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2208,27 +4063,543 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>15874</xdr:colOff>
-      <xdr:row>174</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>206</xdr:row>
+      <xdr:row>200</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5923C693-F308-12C4-F800-2AF24EB31109}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F65A0AB-2E2B-85EE-E90E-718FC49379D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2241,6 +4612,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0804C810-3AD7-3018-830E-4A2379DEE1A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2536,2213 +4943,2813 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D200"/>
+  <dimension ref="A1:X200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W175" sqref="W175"/>
+    <sheetView tabSelected="1" topLeftCell="A187" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A229" sqref="A229:XFD229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A1">
         <v>0.3</v>
       </c>
       <c r="B1">
-        <v>1.8947967113131841</v>
-      </c>
-      <c r="D1" s="1" cm="1">
-        <f t="array" ref="D1:D200">A1:A200 + 0.3</f>
+        <v>0.56843901339394565</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="W1">
+        <v>0.3</v>
+      </c>
+      <c r="X1">
+        <v>0.79150601309135027</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0.3</v>
+      </c>
+      <c r="B2">
+        <v>0.56469349584412543</v>
+      </c>
+      <c r="W2">
+        <v>0.3</v>
+      </c>
+      <c r="X2">
+        <v>0.69789269057566727</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>0.3</v>
+      </c>
+      <c r="B3">
+        <v>0.55473042159317432</v>
+      </c>
+      <c r="W3">
+        <v>0.3</v>
+      </c>
+      <c r="X3">
+        <v>0.78616087634320664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>0.3</v>
+      </c>
+      <c r="B4">
+        <v>0.65371049901494205</v>
+      </c>
+      <c r="W4">
+        <v>0.3</v>
+      </c>
+      <c r="X4">
+        <v>0.67939109871823788</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>0.3</v>
+      </c>
+      <c r="B5">
+        <v>0.62778724121514928</v>
+      </c>
+      <c r="W5">
+        <v>0.3</v>
+      </c>
+      <c r="X5">
+        <v>0.62376472926576909</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>0.3</v>
+      </c>
+      <c r="B6">
+        <v>0.56476702896062791</v>
+      </c>
+      <c r="W6">
+        <v>0.3</v>
+      </c>
+      <c r="X6">
+        <v>0.51885678946950264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>0.3</v>
+      </c>
+      <c r="B7">
+        <v>0.52456488491177966</v>
+      </c>
+      <c r="W7">
+        <v>0.3</v>
+      </c>
+      <c r="X7">
+        <v>0.66631858964484891</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>0.3</v>
+      </c>
+      <c r="B8">
+        <v>0.52877141286155593</v>
+      </c>
+      <c r="W8">
+        <v>0.3</v>
+      </c>
+      <c r="X8">
+        <v>0.5804599192392601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>0.3</v>
+      </c>
+      <c r="B9">
+        <v>0.56151761244400022</v>
+      </c>
+      <c r="W9">
+        <v>0.3</v>
+      </c>
+      <c r="X9">
+        <v>0.42947944215362449</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>0.3</v>
+      </c>
+      <c r="B10">
+        <v>0.60091921076062293</v>
+      </c>
+      <c r="W10">
+        <v>0.3</v>
+      </c>
+      <c r="X10">
+        <v>0.59501400711134877</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>0.3</v>
+      </c>
+      <c r="B11">
+        <v>0.31343676949002891</v>
+      </c>
+      <c r="W11">
+        <v>0.3</v>
+      </c>
+      <c r="X11">
+        <v>1.057529471809374</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>0.3</v>
+      </c>
+      <c r="B12">
+        <v>0.187244067800997</v>
+      </c>
+      <c r="W12">
+        <v>0.3</v>
+      </c>
+      <c r="X12">
+        <v>1.108701827562246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>0.3</v>
+      </c>
+      <c r="B13">
+        <v>0.2274830978847828</v>
+      </c>
+      <c r="W13">
+        <v>0.3</v>
+      </c>
+      <c r="X13">
+        <v>1.1019429871399249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>0.3</v>
+      </c>
+      <c r="B14">
+        <v>0.30897518867281137</v>
+      </c>
+      <c r="W14">
+        <v>0.3</v>
+      </c>
+      <c r="X14">
+        <v>1.1483291376832729</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>0.3</v>
+      </c>
+      <c r="B15">
+        <v>0.19483797761719451</v>
+      </c>
+      <c r="W15">
+        <v>0.3</v>
+      </c>
+      <c r="X15">
+        <v>0.89863327677008087</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>0.3</v>
+      </c>
+      <c r="B16">
+        <v>0.2362072805531423</v>
+      </c>
+      <c r="W16">
+        <v>0.3</v>
+      </c>
+      <c r="X16">
+        <v>1.136202954131075</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>0.3</v>
+      </c>
+      <c r="B17">
+        <v>0.30088027890723668</v>
+      </c>
+      <c r="W17">
+        <v>0.3</v>
+      </c>
+      <c r="X17">
+        <v>0.69811624010608497</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>0.3</v>
+      </c>
+      <c r="B18">
+        <v>0.27995444139722331</v>
+      </c>
+      <c r="W18">
+        <v>0.3</v>
+      </c>
+      <c r="X18">
+        <v>0.80328718391260878</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>0.3</v>
+      </c>
+      <c r="B19">
+        <v>0.19375323738820119</v>
+      </c>
+      <c r="W19">
+        <v>0.3</v>
+      </c>
+      <c r="X19">
+        <v>1.074422433762777</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>0.3</v>
+      </c>
+      <c r="B20">
+        <v>0.24528057375967591</v>
+      </c>
+      <c r="W20">
+        <v>0.3</v>
+      </c>
+      <c r="X20">
+        <v>1.0284183274475791</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A21">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="B2">
-        <v>1.882311652813641</v>
-      </c>
-      <c r="D2">
+      <c r="B21">
+        <v>0.58700843646209977</v>
+      </c>
+      <c r="W21">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="B3">
-        <v>1.8491014053104351</v>
-      </c>
-      <c r="D3">
+      <c r="X21">
+        <v>0.59978138429177719</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A22">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="B4">
-        <v>2.1790349967165308</v>
-      </c>
-      <c r="D4">
+      <c r="B22">
+        <v>0.65795832930587084</v>
+      </c>
+      <c r="W22">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="B5">
-        <v>2.0926241373839432</v>
-      </c>
-      <c r="D5">
+      <c r="X22">
+        <v>-1.1511620892211029E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A23">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="B6">
-        <v>1.8825567632023661</v>
-      </c>
-      <c r="D6">
+      <c r="B23">
+        <v>0.64949272180369322</v>
+      </c>
+      <c r="W23">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="B7">
-        <v>1.748549616372614</v>
-      </c>
-      <c r="D7">
+      <c r="X23">
+        <v>0.20052959876450061</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A24">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="B8">
-        <v>1.7625713762053219</v>
-      </c>
-      <c r="D8">
+      <c r="B24">
+        <v>0.6191209328295888</v>
+      </c>
+      <c r="W24">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="B9">
-        <v>1.871725374813231</v>
-      </c>
-      <c r="D9">
+      <c r="X24">
+        <v>0.17346813165196551</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A25">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="B10">
-        <v>2.0030640358688672</v>
-      </c>
-      <c r="D10">
+      <c r="B25">
+        <v>0.58243802961748203</v>
+      </c>
+      <c r="W25">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="B11">
-        <v>1.044789231633509</v>
-      </c>
-      <c r="D11">
+      <c r="X25">
+        <v>0.180525598588126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A26">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="B12">
-        <v>0.62414689267014722</v>
-      </c>
-      <c r="D12">
+      <c r="B26">
+        <v>0.62594973004260668</v>
+      </c>
+      <c r="W26">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="B13">
-        <v>0.75827699294922013</v>
-      </c>
-      <c r="D13">
+      <c r="X26">
+        <v>0.18719518539162999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A27">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="B14">
-        <v>1.029917295576148</v>
-      </c>
-      <c r="D14">
+      <c r="B27">
+        <v>0.61078938947858008</v>
+      </c>
+      <c r="W27">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="B15">
-        <v>0.64945992539058039</v>
-      </c>
-      <c r="D15">
+      <c r="X27">
+        <v>0.13096979860704749</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A28">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="B16">
-        <v>0.7873576018438726</v>
-      </c>
-      <c r="D16">
+      <c r="B28">
+        <v>0.59488042984642364</v>
+      </c>
+      <c r="W28">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="B17">
-        <v>1.0029342630242579</v>
-      </c>
-      <c r="D17">
+      <c r="X28">
+        <v>0.15454511742889571</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A29">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="B18">
-        <v>0.93318147132406892</v>
-      </c>
-      <c r="D18">
+      <c r="B29">
+        <v>0.63403425374701117</v>
+      </c>
+      <c r="W29">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="B19">
-        <v>0.64584412462738072</v>
-      </c>
-      <c r="D19">
+      <c r="X29">
+        <v>0.30976229547496459</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A30">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="B20">
-        <v>0.817601912532254</v>
-      </c>
-      <c r="D20">
+      <c r="B30">
+        <v>0.64631829865982526</v>
+      </c>
+      <c r="W30">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
+      <c r="X30">
+        <v>5.0203202116609447E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A31">
         <v>0.6</v>
       </c>
-      <c r="B21">
-        <v>1.9566947882070811</v>
-      </c>
-      <c r="D21">
-        <v>0.89999999999999991</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
+      <c r="B31">
+        <v>0.95900429705489332</v>
+      </c>
+      <c r="W31">
         <v>0.6</v>
       </c>
-      <c r="B22">
-        <v>2.1931944310195561</v>
-      </c>
-      <c r="D22">
-        <v>0.89999999999999991</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
+      <c r="X31">
+        <v>0.93273949681154988</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A32">
         <v>0.6</v>
       </c>
-      <c r="B23">
-        <v>2.1649757393458562</v>
-      </c>
-      <c r="D23">
-        <v>0.89999999999999991</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
+      <c r="B32">
+        <v>0.88743225634696588</v>
+      </c>
+      <c r="W32">
         <v>0.6</v>
       </c>
-      <c r="B24">
-        <v>2.06373644276551</v>
-      </c>
-      <c r="D24">
-        <v>0.89999999999999991</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
+      <c r="X32">
+        <v>0.85234980794420778</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A33">
         <v>0.6</v>
       </c>
-      <c r="B25">
-        <v>1.9414600987248389</v>
-      </c>
-      <c r="D25">
-        <v>0.89999999999999991</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
+      <c r="B33">
+        <v>0.91369996990282276</v>
+      </c>
+      <c r="W33">
         <v>0.6</v>
       </c>
-      <c r="B26">
-        <v>2.0864991001421132</v>
-      </c>
-      <c r="D26">
-        <v>0.89999999999999991</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
+      <c r="X33">
+        <v>1.1017996425586141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A34">
         <v>0.6</v>
       </c>
-      <c r="B27">
-        <v>2.0359646315951072</v>
-      </c>
-      <c r="D27">
-        <v>0.89999999999999991</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
+      <c r="B34">
+        <v>0.86757963343249545</v>
+      </c>
+      <c r="W34">
         <v>0.6</v>
       </c>
-      <c r="B28">
-        <v>1.9829347661548411</v>
-      </c>
-      <c r="D28">
-        <v>0.89999999999999991</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
+      <c r="X34">
+        <v>1.138378086056903</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A35">
         <v>0.6</v>
       </c>
-      <c r="B29">
-        <v>2.1134475124901542</v>
-      </c>
-      <c r="D29">
-        <v>0.89999999999999991</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
+      <c r="B35">
+        <v>0.98155306585420421</v>
+      </c>
+      <c r="W35">
         <v>0.6</v>
       </c>
-      <c r="B30">
-        <v>2.1543943288661471</v>
-      </c>
-      <c r="D30">
-        <v>0.89999999999999991</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
+      <c r="X35">
+        <v>1.295872863233924</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A36">
         <v>0.6</v>
       </c>
-      <c r="B31">
-        <v>3.1966809901830331</v>
-      </c>
-      <c r="D31">
-        <v>0.89999999999999991</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
+      <c r="B36">
+        <v>0.92160109352983755</v>
+      </c>
+      <c r="W36">
         <v>0.6</v>
       </c>
-      <c r="B32">
-        <v>2.9581075211565699</v>
-      </c>
-      <c r="D32">
-        <v>0.89999999999999991</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
+      <c r="X36">
+        <v>1.186530852392085</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A37">
         <v>0.6</v>
       </c>
-      <c r="B33">
-        <v>3.0456665663427671</v>
-      </c>
-      <c r="D33">
-        <v>0.89999999999999991</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
+      <c r="B37">
+        <v>0.91238842018914967</v>
+      </c>
+      <c r="W37">
         <v>0.6</v>
       </c>
-      <c r="B34">
-        <v>2.8919321114418248</v>
-      </c>
-      <c r="D34">
-        <v>0.89999999999999991</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
+      <c r="X37">
+        <v>1.013031400310894</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A38">
         <v>0.6</v>
       </c>
-      <c r="B35">
-        <v>3.271843552847173</v>
-      </c>
-      <c r="D35">
-        <v>0.89999999999999991</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
+      <c r="B38">
+        <v>0.88988955243766954</v>
+      </c>
+      <c r="W38">
         <v>0.6</v>
       </c>
-      <c r="B36">
-        <v>3.072003645099358</v>
-      </c>
-      <c r="D36">
-        <v>0.89999999999999991</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
+      <c r="X38">
+        <v>1.045892473986356</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A39">
         <v>0.6</v>
       </c>
-      <c r="B37">
-        <v>3.0412947339639662</v>
-      </c>
-      <c r="D37">
-        <v>0.89999999999999991</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
+      <c r="B39">
+        <v>0.93290237426092704</v>
+      </c>
+      <c r="W39">
         <v>0.6</v>
       </c>
-      <c r="B38">
-        <v>2.966298508125774</v>
-      </c>
-      <c r="D38">
-        <v>0.89999999999999991</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
+      <c r="X39">
+        <v>0.7029258698682348</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A40">
         <v>0.6</v>
       </c>
-      <c r="B39">
-        <v>3.1096745808700419</v>
-      </c>
-      <c r="D39">
-        <v>0.89999999999999991</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
+      <c r="B40">
+        <v>0.88814980182477443</v>
+      </c>
+      <c r="W40">
         <v>0.6</v>
       </c>
-      <c r="B40">
-        <v>2.9604993394159611</v>
-      </c>
-      <c r="D40">
-        <v>0.89999999999999991</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
-        <v>0.89999999999999991</v>
+      <c r="X40">
+        <v>0.78984083263764404</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>0.9</v>
       </c>
       <c r="B41">
-        <v>3.202150438222688</v>
-      </c>
-      <c r="D41">
+        <v>0.96064513146681252</v>
+      </c>
+      <c r="W41">
+        <v>0.9</v>
+      </c>
+      <c r="X41">
+        <v>0.95098841498959175</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>0.9</v>
+      </c>
+      <c r="B42">
+        <v>0.94544791370215053</v>
+      </c>
+      <c r="W42">
+        <v>0.9</v>
+      </c>
+      <c r="X42">
+        <v>1.0108202085459941</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>0.9</v>
+      </c>
+      <c r="B43">
+        <v>0.89336746442849391</v>
+      </c>
+      <c r="W43">
+        <v>0.9</v>
+      </c>
+      <c r="X43">
+        <v>0.68362159946320844</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>0.9</v>
+      </c>
+      <c r="B44">
+        <v>0.94889823999557921</v>
+      </c>
+      <c r="W44">
+        <v>0.9</v>
+      </c>
+      <c r="X44">
+        <v>0.7625278568458711</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>0.9</v>
+      </c>
+      <c r="B45">
+        <v>0.92270529674298674</v>
+      </c>
+      <c r="W45">
+        <v>0.9</v>
+      </c>
+      <c r="X45">
+        <v>0.8773543961421062</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>0.9</v>
+      </c>
+      <c r="B46">
+        <v>0.95138394519820269</v>
+      </c>
+      <c r="W46">
+        <v>0.9</v>
+      </c>
+      <c r="X46">
+        <v>0.80084331733494452</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>0.9</v>
+      </c>
+      <c r="B47">
+        <v>0.9364893165452135</v>
+      </c>
+      <c r="W47">
+        <v>0.9</v>
+      </c>
+      <c r="X47">
+        <v>0.92916555858261063</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>0.9</v>
+      </c>
+      <c r="B48">
+        <v>0.9702457494612351</v>
+      </c>
+      <c r="W48">
+        <v>0.9</v>
+      </c>
+      <c r="X48">
+        <v>0.58837378703029586</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>0.9</v>
+      </c>
+      <c r="B49">
+        <v>0.84704909874326662</v>
+      </c>
+      <c r="W49">
+        <v>0.9</v>
+      </c>
+      <c r="X49">
+        <v>1.038219870725452</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>0.9</v>
+      </c>
+      <c r="B50">
+        <v>0.9025937831755404</v>
+      </c>
+      <c r="W50">
+        <v>0.9</v>
+      </c>
+      <c r="X50">
+        <v>0.75004292449701992</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>0.9</v>
+      </c>
+      <c r="B51">
+        <v>0.83084804272281021</v>
+      </c>
+      <c r="W51">
+        <v>0.9</v>
+      </c>
+      <c r="X51">
+        <v>1.3106476606510109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>0.9</v>
+      </c>
+      <c r="B52">
+        <v>0.85565286858902612</v>
+      </c>
+      <c r="W52">
+        <v>0.9</v>
+      </c>
+      <c r="X52">
+        <v>0.9906773153830386</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>0.9</v>
+      </c>
+      <c r="B53">
+        <v>0.86437679814162438</v>
+      </c>
+      <c r="W53">
+        <v>0.9</v>
+      </c>
+      <c r="X53">
+        <v>1.107656579540631</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>0.9</v>
+      </c>
+      <c r="B54">
+        <v>0.88430511543464307</v>
+      </c>
+      <c r="W54">
+        <v>0.9</v>
+      </c>
+      <c r="X54">
+        <v>1.059807984684934</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>0.9</v>
+      </c>
+      <c r="B55">
+        <v>0.89892210903184067</v>
+      </c>
+      <c r="W55">
+        <v>0.9</v>
+      </c>
+      <c r="X55">
+        <v>1.150224633203734</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>0.9</v>
+      </c>
+      <c r="B56">
+        <v>0.86493188333097182</v>
+      </c>
+      <c r="W56">
+        <v>0.9</v>
+      </c>
+      <c r="X56">
+        <v>1.219947826481921</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>0.9</v>
+      </c>
+      <c r="B57">
+        <v>0.83345547524466257</v>
+      </c>
+      <c r="W57">
+        <v>0.9</v>
+      </c>
+      <c r="X57">
+        <v>1.0837033547023469</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>0.9</v>
+      </c>
+      <c r="B58">
+        <v>0.80105258431036619</v>
+      </c>
+      <c r="W58">
+        <v>0.9</v>
+      </c>
+      <c r="X58">
+        <v>1.195788847085151</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>0.9</v>
+      </c>
+      <c r="B59">
+        <v>0.86334867395013548</v>
+      </c>
+      <c r="W59">
+        <v>0.9</v>
+      </c>
+      <c r="X59">
+        <v>1.1825143895740311</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>0.9</v>
+      </c>
+      <c r="B60">
+        <v>0.84011426553007995</v>
+      </c>
+      <c r="W60">
+        <v>0.9</v>
+      </c>
+      <c r="X60">
+        <v>1.152527767302743</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A61">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="B42">
-        <v>3.1514930456741439</v>
-      </c>
-      <c r="D42">
+      <c r="B61">
+        <v>1.2471480190471851</v>
+      </c>
+      <c r="W61">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="B43">
-        <v>2.9778915480949451</v>
-      </c>
-      <c r="D43">
+      <c r="X61">
+        <v>1.615782601374999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A62">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="B44">
-        <v>3.162994133318719</v>
-      </c>
-      <c r="D44">
+      <c r="B62">
+        <v>1.2581923309020311</v>
+      </c>
+      <c r="W62">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="B45">
-        <v>3.075684322476782</v>
-      </c>
-      <c r="D45">
+      <c r="X62">
+        <v>1.1165576403817179</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A63">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="B46">
-        <v>3.1712798173272181</v>
-      </c>
-      <c r="D46">
+      <c r="B63">
+        <v>1.19042725500125</v>
+      </c>
+      <c r="W63">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="B47">
-        <v>3.1216310551505728</v>
-      </c>
-      <c r="D47">
+      <c r="X63">
+        <v>1.2941173103903689</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A64">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="B48">
-        <v>3.2341524982043448</v>
-      </c>
-      <c r="D48">
+      <c r="B64">
+        <v>1.237113469485277</v>
+      </c>
+      <c r="W64">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="B49">
-        <v>2.823496995810721</v>
-      </c>
-      <c r="D49">
+      <c r="X64">
+        <v>1.080237391250201</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A65">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="B50">
-        <v>3.0086459439183528</v>
-      </c>
-      <c r="D50">
+      <c r="B65">
+        <v>1.25706546087611</v>
+      </c>
+      <c r="W65">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="B51">
-        <v>2.7694934757429048</v>
-      </c>
-      <c r="D51">
+      <c r="X65">
+        <v>1.22315439756682</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A66">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="B52">
-        <v>2.852176228630007</v>
-      </c>
-      <c r="D52">
+      <c r="B66">
+        <v>1.300000606064416</v>
+      </c>
+      <c r="W66">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="B53">
-        <v>2.8812559938057158</v>
-      </c>
-      <c r="D53">
+      <c r="X66">
+        <v>1.526982520058382</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A67">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="1">
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="B54">
-        <v>2.9476837181155702</v>
-      </c>
-      <c r="D54">
+      <c r="B67">
+        <v>1.2323092324238341</v>
+      </c>
+      <c r="W67">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="B55">
-        <v>2.9964070301063899</v>
-      </c>
-      <c r="D55">
+      <c r="X67">
+        <v>1.236376935901575</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A68">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="1">
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="B56">
-        <v>2.883106277770096</v>
-      </c>
-      <c r="D56">
+      <c r="B68">
+        <v>1.2919903739835059</v>
+      </c>
+      <c r="W68">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="1">
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="B57">
-        <v>2.778184917482442</v>
-      </c>
-      <c r="D57">
+      <c r="X68">
+        <v>1.506861648408353</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A69">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="1">
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="B58">
-        <v>2.6701752810343962</v>
-      </c>
-      <c r="D58">
+      <c r="B69">
+        <v>1.246665191917085</v>
+      </c>
+      <c r="W69">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="B59">
-        <v>2.8778289131671571</v>
-      </c>
-      <c r="D59">
+      <c r="X69">
+        <v>1.1757570967378901</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A70">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="1">
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="B60">
-        <v>2.8003808851003309</v>
-      </c>
-      <c r="D60">
+      <c r="B70">
+        <v>1.2991489629176101</v>
+      </c>
+      <c r="W70">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
+      <c r="X70">
+        <v>1.2415374841694169</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A71">
         <v>1.2</v>
       </c>
-      <c r="B61">
-        <v>4.1571600634908634</v>
-      </c>
-      <c r="D61">
+      <c r="B71">
+        <v>1.2142427380617919</v>
+      </c>
+      <c r="W71">
+        <v>1.2</v>
+      </c>
+      <c r="X71">
+        <v>1.30752795449806</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>1.2</v>
+      </c>
+      <c r="B72">
+        <v>1.181515391506871</v>
+      </c>
+      <c r="W72">
+        <v>1.2</v>
+      </c>
+      <c r="X72">
+        <v>1.492064255859997</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>1.2</v>
+      </c>
+      <c r="B73">
+        <v>1.157284298858916</v>
+      </c>
+      <c r="W73">
+        <v>1.2</v>
+      </c>
+      <c r="X73">
+        <v>1.4920241858704979</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>1.2</v>
+      </c>
+      <c r="B74">
+        <v>1.2041981166389319</v>
+      </c>
+      <c r="W74">
+        <v>1.2</v>
+      </c>
+      <c r="X74">
+        <v>1.6959116782375749</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>1.2</v>
+      </c>
+      <c r="B75">
+        <v>1.1552653345252291</v>
+      </c>
+      <c r="W75">
+        <v>1.2</v>
+      </c>
+      <c r="X75">
+        <v>1.5241938081002111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>1.2</v>
+      </c>
+      <c r="B76">
+        <v>1.1410673225739321</v>
+      </c>
+      <c r="W76">
+        <v>1.2</v>
+      </c>
+      <c r="X76">
+        <v>1.3846610524106211</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>1.2</v>
+      </c>
+      <c r="B77">
+        <v>1.1971738331283861</v>
+      </c>
+      <c r="W77">
+        <v>1.2</v>
+      </c>
+      <c r="X77">
+        <v>1.567927566396911</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>1.2</v>
+      </c>
+      <c r="B78">
+        <v>1.225014864058505</v>
+      </c>
+      <c r="W78">
+        <v>1.2</v>
+      </c>
+      <c r="X78">
+        <v>1.62307046555371</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>1.2</v>
+      </c>
+      <c r="B79">
+        <v>1.16551710450872</v>
+      </c>
+      <c r="W79">
+        <v>1.2</v>
+      </c>
+      <c r="X79">
+        <v>1.640541278780717</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>1.2</v>
+      </c>
+      <c r="B80">
+        <v>1.1728232589894929</v>
+      </c>
+      <c r="W80">
+        <v>1.2</v>
+      </c>
+      <c r="X80">
+        <v>1.7936293697716901</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A81">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="B62">
-        <v>4.193974436340163</v>
-      </c>
-      <c r="D62">
+      <c r="B81">
+        <v>1.543790505257338</v>
+      </c>
+      <c r="W81">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="B63">
-        <v>3.96809085000401</v>
-      </c>
-      <c r="D63">
+      <c r="X81">
+        <v>1.375367179398165</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A82">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="B64">
-        <v>4.1237115649511367</v>
-      </c>
-      <c r="D64">
+      <c r="B82">
+        <v>1.4850404281818941</v>
+      </c>
+      <c r="W82">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="B65">
-        <v>4.1902182029206259</v>
-      </c>
-      <c r="D65">
+      <c r="X82">
+        <v>1.076378566773734</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A83">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="B66">
-        <v>4.3333353535480512</v>
-      </c>
-      <c r="D66">
+      <c r="B83">
+        <v>1.4965846192671719</v>
+      </c>
+      <c r="W83">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="B67">
-        <v>4.1076974414129097</v>
-      </c>
-      <c r="D67">
+      <c r="X83">
+        <v>1.1208458635539811</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A84">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="B68">
-        <v>4.3066345799450048</v>
-      </c>
-      <c r="D68">
+      <c r="B84">
+        <v>1.4237307610887351</v>
+      </c>
+      <c r="W84">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="B69">
-        <v>4.1555506397236073</v>
-      </c>
-      <c r="D69">
+      <c r="X84">
+        <v>1.115554344740612</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A85">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="B70">
-        <v>4.3304965430589064</v>
-      </c>
-      <c r="D70">
+      <c r="B85">
+        <v>1.494544964957172</v>
+      </c>
+      <c r="W85">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="B71">
-        <v>4.0474757935394896</v>
-      </c>
-      <c r="D71">
+      <c r="X85">
+        <v>0.92189858644283973</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A86">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="B72">
-        <v>3.9383846383562759</v>
-      </c>
-      <c r="D72">
+      <c r="B86">
+        <v>1.496281349200701</v>
+      </c>
+      <c r="W86">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="B73">
-        <v>3.8576143295299228</v>
-      </c>
-      <c r="D73">
+      <c r="X86">
+        <v>1.181728143028089</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A87">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="B74">
-        <v>4.0139937221299462</v>
-      </c>
-      <c r="D74">
+      <c r="B87">
+        <v>1.48795703917704</v>
+      </c>
+      <c r="W87">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="B75">
-        <v>3.8508844484174598</v>
-      </c>
-      <c r="D75">
+      <c r="X87">
+        <v>0.98887309263700729</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A88">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="B76">
-        <v>3.8035577419134441</v>
-      </c>
-      <c r="D76">
+      <c r="B88">
+        <v>1.4078660545053061</v>
+      </c>
+      <c r="W88">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="B77">
-        <v>3.9905794437614688</v>
-      </c>
-      <c r="D77">
+      <c r="X88">
+        <v>0.88411599837981569</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A89">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="B78">
-        <v>4.0833828801951313</v>
-      </c>
-      <c r="D78">
+      <c r="B89">
+        <v>1.4847596241859451</v>
+      </c>
+      <c r="W89">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="B79">
-        <v>3.885057015029219</v>
-      </c>
-      <c r="D79">
+      <c r="X89">
+        <v>1.269507138835223</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A90">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="B80">
-        <v>3.9094108632983828</v>
-      </c>
-      <c r="D80">
+      <c r="B90">
+        <v>1.4657078138960891</v>
+      </c>
+      <c r="W90">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" s="1">
+      <c r="X90">
+        <v>1.2679851487137379</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A91">
         <v>1.5</v>
       </c>
-      <c r="B81">
-        <v>5.1459683508580767</v>
-      </c>
-      <c r="D81">
+      <c r="B91">
+        <v>1.5067961690191081</v>
+      </c>
+      <c r="W91">
+        <v>1.5</v>
+      </c>
+      <c r="X91">
+        <v>1.4823857470923021</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>1.5</v>
+      </c>
+      <c r="B92">
+        <v>1.534345266423714</v>
+      </c>
+      <c r="W92">
+        <v>1.5</v>
+      </c>
+      <c r="X92">
+        <v>1.669510186561322</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>1.5</v>
+      </c>
+      <c r="B93">
+        <v>1.4826879556864589</v>
+      </c>
+      <c r="W93">
+        <v>1.5</v>
+      </c>
+      <c r="X93">
+        <v>1.234121617435491</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>1.5</v>
+      </c>
+      <c r="B94">
+        <v>1.4664945303143431</v>
+      </c>
+      <c r="W94">
+        <v>1.5</v>
+      </c>
+      <c r="X94">
+        <v>1.48872273036741</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>1.5</v>
+      </c>
+      <c r="B95">
+        <v>1.535108141282759</v>
+      </c>
+      <c r="W95">
+        <v>1.5</v>
+      </c>
+      <c r="X95">
+        <v>1.595020732013555</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>1.5</v>
+      </c>
+      <c r="B96">
+        <v>1.531522550514584</v>
+      </c>
+      <c r="W96">
+        <v>1.5</v>
+      </c>
+      <c r="X96">
+        <v>1.4423940524205681</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>1.5</v>
+      </c>
+      <c r="B97">
+        <v>1.500542313206495</v>
+      </c>
+      <c r="W97">
+        <v>1.5</v>
+      </c>
+      <c r="X97">
+        <v>1.6700869015027671</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>1.5</v>
+      </c>
+      <c r="B98">
+        <v>1.506577846994116</v>
+      </c>
+      <c r="W98">
+        <v>1.5</v>
+      </c>
+      <c r="X98">
+        <v>1.624148553785794</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>1.5</v>
+      </c>
+      <c r="B99">
+        <v>1.479327035028682</v>
+      </c>
+      <c r="W99">
+        <v>1.5</v>
+      </c>
+      <c r="X99">
+        <v>1.498227596581202</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>1.5</v>
+      </c>
+      <c r="B100">
+        <v>1.376449697115206</v>
+      </c>
+      <c r="W100">
+        <v>1.5</v>
+      </c>
+      <c r="X100">
+        <v>1.407261232769873</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A101">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="B82">
-        <v>4.9501347606063177</v>
-      </c>
-      <c r="D82">
+      <c r="B101">
+        <v>1.85366635939554</v>
+      </c>
+      <c r="W101">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="B83">
-        <v>4.9886153975573961</v>
-      </c>
-      <c r="D83">
+      <c r="X101">
+        <v>1.41963956941321</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A102">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="B84">
-        <v>4.7457692036289876</v>
-      </c>
-      <c r="D84">
+      <c r="B102">
+        <v>1.8776850545638131</v>
+      </c>
+      <c r="W102">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="B85">
-        <v>4.9818165498573208</v>
-      </c>
-      <c r="D85">
+      <c r="X102">
+        <v>1.419749158825425</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A103">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="B86">
-        <v>4.9876044973358802</v>
-      </c>
-      <c r="D86">
+      <c r="B103">
+        <v>1.8495150239443809</v>
+      </c>
+      <c r="W103">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="B87">
-        <v>4.9598567972573022</v>
-      </c>
-      <c r="D87">
+      <c r="X103">
+        <v>1.4062010564862819</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A104">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="B88">
-        <v>4.692886848350966</v>
-      </c>
-      <c r="D88">
+      <c r="B104">
+        <v>1.9028301702876369</v>
+      </c>
+      <c r="W104">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="B89">
-        <v>4.9491987472865802</v>
-      </c>
-      <c r="D89">
+      <c r="X104">
+        <v>1.8382891418610221</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A105">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="B90">
-        <v>4.8856927129870664</v>
-      </c>
-      <c r="D90">
+      <c r="B105">
+        <v>1.8513324403529841</v>
+      </c>
+      <c r="W105">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="B91">
-        <v>5.022653896730553</v>
-      </c>
-      <c r="D91">
+      <c r="X105">
+        <v>1.5271289539923321</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A106">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="B92">
-        <v>5.1144842214123827</v>
-      </c>
-      <c r="D92">
+      <c r="B106">
+        <v>1.8588683177957821</v>
+      </c>
+      <c r="W106">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="B93">
-        <v>4.9422931856217014</v>
-      </c>
-      <c r="D93">
+      <c r="X106">
+        <v>1.429900595040259</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A107">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="B94">
-        <v>4.888315101047894</v>
-      </c>
-      <c r="D94">
+      <c r="B107">
+        <v>1.883837711328717</v>
+      </c>
+      <c r="W107">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="B95">
-        <v>5.1170271376092771</v>
-      </c>
-      <c r="D95">
+      <c r="X107">
+        <v>1.0770649084410979</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A108">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A96" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="B96">
-        <v>5.1050751683822071</v>
-      </c>
-      <c r="D96">
+      <c r="B108">
+        <v>1.826745174517395</v>
+      </c>
+      <c r="W108">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A97" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="B97">
-        <v>5.0018077106883956</v>
-      </c>
-      <c r="D97">
+      <c r="X108">
+        <v>1.5999370261732899</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A109">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A98" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="B98">
-        <v>5.0219261566470186</v>
-      </c>
-      <c r="D98">
+      <c r="B109">
+        <v>1.833538712175401</v>
+      </c>
+      <c r="W109">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A99" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="B99">
-        <v>4.931090116762185</v>
-      </c>
-      <c r="D99">
+      <c r="X109">
+        <v>1.4718374330706081</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A110">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A100" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="B100">
-        <v>4.5881656570506593</v>
-      </c>
-      <c r="D100">
+      <c r="B110">
+        <v>1.7975274596744839</v>
+      </c>
+      <c r="W110">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A101" s="1">
+      <c r="X110">
+        <v>1.3576554466052679</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A111">
         <v>1.8</v>
       </c>
-      <c r="B101">
-        <v>6.178887864651962</v>
-      </c>
-      <c r="D101">
+      <c r="B111">
+        <v>1.912412273010645</v>
+      </c>
+      <c r="W111">
+        <v>1.8</v>
+      </c>
+      <c r="X111">
+        <v>1.287080299857557</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>1.8</v>
+      </c>
+      <c r="B112">
+        <v>1.914829126131167</v>
+      </c>
+      <c r="W112">
+        <v>1.8</v>
+      </c>
+      <c r="X112">
+        <v>1.605865750892598</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>1.8</v>
+      </c>
+      <c r="B113">
+        <v>1.928005519609947</v>
+      </c>
+      <c r="W113">
+        <v>1.8</v>
+      </c>
+      <c r="X113">
+        <v>1.362432211184281</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>1.8</v>
+      </c>
+      <c r="B114">
+        <v>1.893335412257205</v>
+      </c>
+      <c r="W114">
+        <v>1.8</v>
+      </c>
+      <c r="X114">
+        <v>1.768008962246171</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>1.8</v>
+      </c>
+      <c r="B115">
+        <v>1.9227720101616479</v>
+      </c>
+      <c r="W115">
+        <v>1.8</v>
+      </c>
+      <c r="X115">
+        <v>1.766504297608716</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>1.8</v>
+      </c>
+      <c r="B116">
+        <v>1.916047002035576</v>
+      </c>
+      <c r="W116">
+        <v>1.8</v>
+      </c>
+      <c r="X116">
+        <v>1.4243613810475679</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>1.8</v>
+      </c>
+      <c r="B117">
+        <v>1.906185655303628</v>
+      </c>
+      <c r="W117">
+        <v>1.8</v>
+      </c>
+      <c r="X117">
+        <v>1.286279174808403</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>1.8</v>
+      </c>
+      <c r="B118">
+        <v>1.920107611015706</v>
+      </c>
+      <c r="W118">
+        <v>1.8</v>
+      </c>
+      <c r="X118">
+        <v>2.0372585326872499</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>1.8</v>
+      </c>
+      <c r="B119">
+        <v>1.9544410113140249</v>
+      </c>
+      <c r="W119">
+        <v>1.8</v>
+      </c>
+      <c r="X119">
+        <v>1.605287974220907</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>1.8</v>
+      </c>
+      <c r="B120">
+        <v>1.8615797533447711</v>
+      </c>
+      <c r="W120">
+        <v>1.8</v>
+      </c>
+      <c r="X120">
+        <v>1.4615526153957601</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A121">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A102" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="B102">
-        <v>6.2589501818795767</v>
-      </c>
-      <c r="D102">
+      <c r="B121">
+        <v>2.1254982002073222</v>
+      </c>
+      <c r="W121">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A103" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="B103">
-        <v>6.1650500798147831</v>
-      </c>
-      <c r="D103">
+      <c r="X121">
+        <v>1.841479040450142</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A122">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A104" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="B104">
-        <v>6.3427672342921886</v>
-      </c>
-      <c r="D104">
+      <c r="B122">
+        <v>2.119693406676423</v>
+      </c>
+      <c r="W122">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A105" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="B105">
-        <v>6.1711081345100141</v>
-      </c>
-      <c r="D105">
+      <c r="X122">
+        <v>2.2591890443883642</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A123">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A106" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="B106">
-        <v>6.1962277259862546</v>
-      </c>
-      <c r="D106">
+      <c r="B123">
+        <v>2.1341554625179642</v>
+      </c>
+      <c r="W123">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A107" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="B107">
-        <v>6.2794590377624999</v>
-      </c>
-      <c r="D107">
+      <c r="X123">
+        <v>1.855477668560731</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A124">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A108" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="B108">
-        <v>6.0891505817247449</v>
-      </c>
-      <c r="D108">
+      <c r="B124">
+        <v>2.163772806046862</v>
+      </c>
+      <c r="W124">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A109" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="B109">
-        <v>6.1117957072513533</v>
-      </c>
-      <c r="D109">
+      <c r="X124">
+        <v>1.924330774586803</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A125">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A110" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="B110">
-        <v>5.9917581989153126</v>
-      </c>
-      <c r="D110">
+      <c r="B125">
+        <v>2.096965783460214</v>
+      </c>
+      <c r="W125">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A111" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="B111">
-        <v>6.374707576702356</v>
-      </c>
-      <c r="D111">
+      <c r="X125">
+        <v>2.058940129450495</v>
+      </c>
+    </row>
+    <row r="126" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A126">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A112" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="B112">
-        <v>6.382763753770881</v>
-      </c>
-      <c r="D112">
+      <c r="B126">
+        <v>2.095396805662276</v>
+      </c>
+      <c r="W126">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A113" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="B113">
-        <v>6.4266850653664784</v>
-      </c>
-      <c r="D113">
+      <c r="X126">
+        <v>2.2159444387015981</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A127">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A114" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="B114">
-        <v>6.3111180408575294</v>
-      </c>
-      <c r="D114">
+      <c r="B127">
+        <v>2.0993441120650229</v>
+      </c>
+      <c r="W127">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A115" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="B115">
-        <v>6.4092400338725</v>
-      </c>
-      <c r="D115">
+      <c r="X127">
+        <v>2.0475905539790382</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A128">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A116" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="B116">
-        <v>6.3868233401187169</v>
-      </c>
-      <c r="D116">
+      <c r="B128">
+        <v>2.196249303554481</v>
+      </c>
+      <c r="W128">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A117" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="B117">
-        <v>6.3539521843456228</v>
-      </c>
-      <c r="D117">
+      <c r="X128">
+        <v>2.2044414753873589</v>
+      </c>
+    </row>
+    <row r="129" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A129">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A118" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="B118">
-        <v>6.4003587033856144</v>
-      </c>
-      <c r="D118">
+      <c r="B129">
+        <v>2.091110081512586</v>
+      </c>
+      <c r="W129">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A119" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="B119">
-        <v>6.5148033710470017</v>
-      </c>
-      <c r="D119">
+      <c r="X129">
+        <v>1.9512075779251501</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A130">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A120" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="B120">
-        <v>6.2052658444829589</v>
-      </c>
-      <c r="D120">
+      <c r="B130">
+        <v>2.141618855308054</v>
+      </c>
+      <c r="W130">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A121" s="1">
+      <c r="X130">
+        <v>2.0838222151638282</v>
+      </c>
+    </row>
+    <row r="131" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A131">
         <v>2.1</v>
       </c>
-      <c r="B121">
-        <v>7.0849940006910757</v>
-      </c>
-      <c r="D121">
+      <c r="B131">
+        <v>1.976898332714673</v>
+      </c>
+      <c r="W131">
+        <v>2.1</v>
+      </c>
+      <c r="X131">
+        <v>1.9581130501676469</v>
+      </c>
+    </row>
+    <row r="132" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>2.1</v>
+      </c>
+      <c r="B132">
+        <v>1.9633799879428899</v>
+      </c>
+      <c r="W132">
+        <v>2.1</v>
+      </c>
+      <c r="X132">
+        <v>2.406773056818889</v>
+      </c>
+    </row>
+    <row r="133" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>2.1</v>
+      </c>
+      <c r="B133">
+        <v>1.9768250563314249</v>
+      </c>
+      <c r="W133">
+        <v>2.1</v>
+      </c>
+      <c r="X133">
+        <v>2.193023091797798</v>
+      </c>
+    </row>
+    <row r="134" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>2.1</v>
+      </c>
+      <c r="B134">
+        <v>1.8517151695673391</v>
+      </c>
+      <c r="W134">
+        <v>2.1</v>
+      </c>
+      <c r="X134">
+        <v>2.174123980245668</v>
+      </c>
+    </row>
+    <row r="135" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>2.1</v>
+      </c>
+      <c r="B135">
+        <v>2.001206121001637</v>
+      </c>
+      <c r="W135">
+        <v>2.1</v>
+      </c>
+      <c r="X135">
+        <v>2.3945028109180271</v>
+      </c>
+    </row>
+    <row r="136" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>2.1</v>
+      </c>
+      <c r="B136">
+        <v>1.819344786111796</v>
+      </c>
+      <c r="W136">
+        <v>2.1</v>
+      </c>
+      <c r="X136">
+        <v>2.6076823883383109</v>
+      </c>
+    </row>
+    <row r="137" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>2.1</v>
+      </c>
+      <c r="B137">
+        <v>1.8209248044442861</v>
+      </c>
+      <c r="W137">
+        <v>2.1</v>
+      </c>
+      <c r="X137">
+        <v>1.9094399201103021</v>
+      </c>
+    </row>
+    <row r="138" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>2.1</v>
+      </c>
+      <c r="B138">
+        <v>1.9363528141673469</v>
+      </c>
+      <c r="W138">
+        <v>2.1</v>
+      </c>
+      <c r="X138">
+        <v>2.0806867941145062</v>
+      </c>
+    </row>
+    <row r="139" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <v>2.1</v>
+      </c>
+      <c r="B139">
+        <v>1.937140899197058</v>
+      </c>
+      <c r="W139">
+        <v>2.1</v>
+      </c>
+      <c r="X139">
+        <v>2.2465578710419578</v>
+      </c>
+    </row>
+    <row r="140" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <v>2.1</v>
+      </c>
+      <c r="B140">
+        <v>1.8473544956065211</v>
+      </c>
+      <c r="W140">
+        <v>2.1</v>
+      </c>
+      <c r="X140">
+        <v>1.964930248511457</v>
+      </c>
+    </row>
+    <row r="141" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A141">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A122" s="1">
-        <v>2.1</v>
-      </c>
-      <c r="B122">
-        <v>7.0656446889217861</v>
-      </c>
-      <c r="D122">
+      <c r="B141">
+        <v>2.457100219896784</v>
+      </c>
+      <c r="W141">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A123" s="1">
-        <v>2.1</v>
-      </c>
-      <c r="B123">
-        <v>7.1138515417267101</v>
-      </c>
-      <c r="D123">
+      <c r="X141">
+        <v>2.7282774073865959</v>
+      </c>
+    </row>
+    <row r="142" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A142">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A124" s="1">
-        <v>2.1</v>
-      </c>
-      <c r="B124">
-        <v>7.2125760201562557</v>
-      </c>
-      <c r="D124">
+      <c r="B142">
+        <v>2.4256556870991841</v>
+      </c>
+      <c r="W142">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A125" s="1">
-        <v>2.1</v>
-      </c>
-      <c r="B125">
-        <v>6.98988594486746</v>
-      </c>
-      <c r="D125">
+      <c r="X142">
+        <v>2.3407836853056661</v>
+      </c>
+    </row>
+    <row r="143" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A143">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A126" s="1">
-        <v>2.1</v>
-      </c>
-      <c r="B126">
-        <v>6.9846560188742686</v>
-      </c>
-      <c r="D126">
+      <c r="B143">
+        <v>2.4237613709443129</v>
+      </c>
+      <c r="W143">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A127" s="1">
-        <v>2.1</v>
-      </c>
-      <c r="B127">
-        <v>6.9978137068833854</v>
-      </c>
-      <c r="D127">
+      <c r="X143">
+        <v>2.9843127490957322</v>
+      </c>
+    </row>
+    <row r="144" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A144">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A128" s="1">
-        <v>2.1</v>
-      </c>
-      <c r="B128">
-        <v>7.3208310118484192</v>
-      </c>
-      <c r="D128">
+      <c r="B144">
+        <v>2.4774994765442528</v>
+      </c>
+      <c r="W144">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A129" s="1">
-        <v>2.1</v>
-      </c>
-      <c r="B129">
-        <v>6.9703669383756122</v>
-      </c>
-      <c r="D129">
+      <c r="X144">
+        <v>2.724797025221406</v>
+      </c>
+    </row>
+    <row r="145" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A145">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A130" s="1">
-        <v>2.1</v>
-      </c>
-      <c r="B130">
-        <v>7.1387295176935552</v>
-      </c>
-      <c r="D130">
+      <c r="B145">
+        <v>2.4114962470475558</v>
+      </c>
+      <c r="W145">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A131" s="1">
-        <v>2.1</v>
-      </c>
-      <c r="B131">
-        <v>6.5896611090490254</v>
-      </c>
-      <c r="D131">
+      <c r="X145">
+        <v>2.6936604246485309</v>
+      </c>
+    </row>
+    <row r="146" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A146">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A132" s="1">
-        <v>2.1</v>
-      </c>
-      <c r="B132">
-        <v>6.5445999598099647</v>
-      </c>
-      <c r="D132">
+      <c r="B146">
+        <v>2.4122627271320738</v>
+      </c>
+      <c r="W146">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A133" s="1">
-        <v>2.1</v>
-      </c>
-      <c r="B133">
-        <v>6.5894168544383902</v>
-      </c>
-      <c r="D133">
+      <c r="X146">
+        <v>2.8217540037894189</v>
+      </c>
+    </row>
+    <row r="147" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A147">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A134" s="1">
-        <v>2.1</v>
-      </c>
-      <c r="B134">
-        <v>6.1723838985579889</v>
-      </c>
-      <c r="D134">
+      <c r="B147">
+        <v>2.4445438030860531</v>
+      </c>
+      <c r="W147">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A135" s="1">
-        <v>2.1</v>
-      </c>
-      <c r="B135">
-        <v>6.6706870700055063</v>
-      </c>
-      <c r="D135">
+      <c r="X147">
+        <v>2.7903034912847922</v>
+      </c>
+    </row>
+    <row r="148" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A148">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A136" s="1">
-        <v>2.1</v>
-      </c>
-      <c r="B136">
-        <v>6.0644826203729778</v>
-      </c>
-      <c r="D136">
+      <c r="B148">
+        <v>2.3967868951379039</v>
+      </c>
+      <c r="W148">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A137" s="1">
-        <v>2.1</v>
-      </c>
-      <c r="B137">
-        <v>6.0697493481477034</v>
-      </c>
-      <c r="D137">
+      <c r="X148">
+        <v>2.779826763116414</v>
+      </c>
+    </row>
+    <row r="149" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A149">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A138" s="1">
-        <v>2.1</v>
-      </c>
-      <c r="B138">
-        <v>6.4545093805581288</v>
-      </c>
-      <c r="D138">
+      <c r="B149">
+        <v>2.4841552573140899</v>
+      </c>
+      <c r="W149">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A139" s="1">
-        <v>2.1</v>
-      </c>
-      <c r="B139">
-        <v>6.4571363306570566</v>
-      </c>
-      <c r="D139">
+      <c r="X149">
+        <v>2.6021650651475952</v>
+      </c>
+    </row>
+    <row r="150" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A150">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A140" s="1">
-        <v>2.1</v>
-      </c>
-      <c r="B140">
-        <v>6.1578483186885862</v>
-      </c>
-      <c r="D140">
+      <c r="B150">
+        <v>2.5022373116202492</v>
+      </c>
+      <c r="W150">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A141" s="1">
+      <c r="X150">
+        <v>2.67621538833717</v>
+      </c>
+    </row>
+    <row r="151" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A151">
         <v>2.4</v>
       </c>
-      <c r="B141">
-        <v>8.1903340663230537</v>
-      </c>
-      <c r="D141">
-        <v>2.6999999999999997</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A142" s="1">
+      <c r="B151">
+        <v>2.310516404727335</v>
+      </c>
+      <c r="W151">
         <v>2.4</v>
       </c>
-      <c r="B142">
-        <v>8.0855189569976957</v>
-      </c>
-      <c r="D142">
-        <v>2.6999999999999997</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A143" s="1">
+      <c r="X151">
+        <v>2.676461841669223</v>
+      </c>
+    </row>
+    <row r="152" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A152">
         <v>2.4</v>
       </c>
-      <c r="B143">
-        <v>8.0792045698148982</v>
-      </c>
-      <c r="D143">
-        <v>2.6999999999999997</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A144" s="1">
+      <c r="B152">
+        <v>2.328373699200907</v>
+      </c>
+      <c r="W152">
         <v>2.4</v>
       </c>
-      <c r="B144">
-        <v>8.2583315884812052</v>
-      </c>
-      <c r="D144">
-        <v>2.6999999999999997</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A145" s="1">
+      <c r="X152">
+        <v>2.4664402757853132</v>
+      </c>
+    </row>
+    <row r="153" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A153">
         <v>2.4</v>
       </c>
-      <c r="B145">
-        <v>8.0383208234922776</v>
-      </c>
-      <c r="D145">
-        <v>2.6999999999999997</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A146" s="1">
+      <c r="B153">
+        <v>2.3410118088868188</v>
+      </c>
+      <c r="W153">
         <v>2.4</v>
       </c>
-      <c r="B146">
-        <v>8.0408757571070097</v>
-      </c>
-      <c r="D146">
-        <v>2.6999999999999997</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A147" s="1">
+      <c r="X153">
+        <v>3.0199837598404322</v>
+      </c>
+    </row>
+    <row r="154" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A154">
         <v>2.4</v>
       </c>
-      <c r="B147">
-        <v>8.1484793436202594</v>
-      </c>
-      <c r="D147">
-        <v>2.6999999999999997</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A148" s="1">
+      <c r="B154">
+        <v>2.3746515775152521</v>
+      </c>
+      <c r="W154">
         <v>2.4</v>
       </c>
-      <c r="B148">
-        <v>7.9892896504599022</v>
-      </c>
-      <c r="D148">
-        <v>2.6999999999999997</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A149" s="1">
+      <c r="X154">
+        <v>2.7629088363091761</v>
+      </c>
+    </row>
+    <row r="155" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A155">
         <v>2.4</v>
       </c>
-      <c r="B149">
-        <v>8.2805175243804214</v>
-      </c>
-      <c r="D149">
-        <v>2.6999999999999997</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A150" s="1">
+      <c r="B155">
+        <v>2.317971483565004</v>
+      </c>
+      <c r="W155">
         <v>2.4</v>
       </c>
-      <c r="B150">
-        <v>8.3407910387344018</v>
-      </c>
-      <c r="D150">
-        <v>2.6999999999999997</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A151" s="1">
+      <c r="X155">
+        <v>2.6073335523317742</v>
+      </c>
+    </row>
+    <row r="156" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A156">
         <v>2.4</v>
       </c>
-      <c r="B151">
-        <v>7.7017213490914216</v>
-      </c>
-      <c r="D151">
-        <v>2.6999999999999997</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A152" s="1">
+      <c r="B156">
+        <v>2.262239088717064</v>
+      </c>
+      <c r="W156">
         <v>2.4</v>
       </c>
-      <c r="B152">
-        <v>7.7612456640031198</v>
-      </c>
-      <c r="D152">
-        <v>2.6999999999999997</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A153" s="1">
+      <c r="X156">
+        <v>2.6623119829482391</v>
+      </c>
+    </row>
+    <row r="157" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A157">
         <v>2.4</v>
       </c>
-      <c r="B153">
-        <v>7.8033726962894363</v>
-      </c>
-      <c r="D153">
-        <v>2.6999999999999997</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A154" s="1">
+      <c r="B157">
+        <v>2.2521307246003208</v>
+      </c>
+      <c r="W157">
         <v>2.4</v>
       </c>
-      <c r="B154">
-        <v>7.9155052583843784</v>
-      </c>
-      <c r="D154">
-        <v>2.6999999999999997</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A155" s="1">
+      <c r="X157">
+        <v>2.8440223000233722</v>
+      </c>
+    </row>
+    <row r="158" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A158">
         <v>2.4</v>
       </c>
-      <c r="B155">
-        <v>7.7265716118836067</v>
-      </c>
-      <c r="D155">
-        <v>2.6999999999999997</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A156" s="1">
+      <c r="B158">
+        <v>2.2902242391815482</v>
+      </c>
+      <c r="W158">
         <v>2.4</v>
       </c>
-      <c r="B156">
-        <v>7.5407969623900968</v>
-      </c>
-      <c r="D156">
-        <v>2.6999999999999997</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A157" s="1">
+      <c r="X158">
+        <v>2.8021314692698809</v>
+      </c>
+    </row>
+    <row r="159" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A159">
         <v>2.4</v>
       </c>
-      <c r="B157">
-        <v>7.5071024153344297</v>
-      </c>
-      <c r="D157">
-        <v>2.6999999999999997</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A158" s="1">
+      <c r="B159">
+        <v>2.22442031921786</v>
+      </c>
+      <c r="W159">
         <v>2.4</v>
       </c>
-      <c r="B158">
-        <v>7.6340807972719986</v>
-      </c>
-      <c r="D158">
-        <v>2.6999999999999997</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A159" s="1">
+      <c r="X159">
+        <v>2.8929123697907362</v>
+      </c>
+    </row>
+    <row r="160" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A160">
         <v>2.4</v>
       </c>
-      <c r="B159">
-        <v>7.4147343973930546</v>
-      </c>
-      <c r="D159">
-        <v>2.6999999999999997</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A160" s="1">
+      <c r="B160">
+        <v>2.304344827722919</v>
+      </c>
+      <c r="W160">
         <v>2.4</v>
       </c>
-      <c r="B160">
-        <v>7.6811494257433424</v>
-      </c>
-      <c r="D160">
-        <v>2.6999999999999997</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A161" s="1">
-        <v>2.6999999999999997</v>
+      <c r="X160">
+        <v>2.586423883365228</v>
+      </c>
+    </row>
+    <row r="161" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A161">
+        <v>2.7</v>
       </c>
       <c r="B161">
-        <v>8.1343795240932124</v>
-      </c>
-      <c r="D161">
-        <v>2.9999999999999996</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A162" s="1">
-        <v>2.6999999999999997</v>
+        <v>2.4403138572279239</v>
+      </c>
+      <c r="W161">
+        <v>2.7</v>
+      </c>
+      <c r="X161">
+        <v>2.549331558291652</v>
+      </c>
+    </row>
+    <row r="162" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A162">
+        <v>2.7</v>
       </c>
       <c r="B162">
-        <v>8.2056740255343428</v>
-      </c>
-      <c r="D162">
-        <v>2.9999999999999996</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A163" s="1">
-        <v>2.6999999999999997</v>
+        <v>2.4617022076602462</v>
+      </c>
+      <c r="W162">
+        <v>2.7</v>
+      </c>
+      <c r="X162">
+        <v>3.071134617464939</v>
+      </c>
+    </row>
+    <row r="163" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A163">
+        <v>2.7</v>
       </c>
       <c r="B163">
-        <v>8.2219822396191304</v>
-      </c>
-      <c r="D163">
-        <v>2.9999999999999996</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A164" s="1">
-        <v>2.6999999999999997</v>
+        <v>2.4665946718856522</v>
+      </c>
+      <c r="W163">
+        <v>2.7</v>
+      </c>
+      <c r="X163">
+        <v>3.0418559603016528</v>
+      </c>
+    </row>
+    <row r="164" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A164">
+        <v>2.7</v>
       </c>
       <c r="B164">
-        <v>8.3397362410526128</v>
-      </c>
-      <c r="D164">
-        <v>2.9999999999999996</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A165" s="1">
-        <v>2.6999999999999997</v>
+        <v>2.5019208723158148</v>
+      </c>
+      <c r="W164">
+        <v>2.7</v>
+      </c>
+      <c r="X164">
+        <v>3.0399283574876041</v>
+      </c>
+    </row>
+    <row r="165" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A165">
+        <v>2.7</v>
       </c>
       <c r="B165">
-        <v>8.1680845626721563</v>
-      </c>
-      <c r="D165">
-        <v>2.9999999999999996</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A166" s="1">
-        <v>2.6999999999999997</v>
+        <v>2.450425368801703</v>
+      </c>
+      <c r="W165">
+        <v>2.7</v>
+      </c>
+      <c r="X165">
+        <v>2.7597589697028622</v>
+      </c>
+    </row>
+    <row r="166" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A166">
+        <v>2.7</v>
       </c>
       <c r="B166">
-        <v>8.2599859579041848</v>
-      </c>
-      <c r="D166">
-        <v>2.9999999999999996</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A167" s="1">
-        <v>2.6999999999999997</v>
+        <v>2.4779957873712419</v>
+      </c>
+      <c r="W166">
+        <v>2.7</v>
+      </c>
+      <c r="X166">
+        <v>2.802560574378592</v>
+      </c>
+    </row>
+    <row r="167" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A167">
+        <v>2.7</v>
       </c>
       <c r="B167">
-        <v>8.2449049141860726</v>
-      </c>
-      <c r="D167">
-        <v>2.9999999999999996</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A168" s="1">
-        <v>2.6999999999999997</v>
+        <v>2.4734714742557888</v>
+      </c>
+      <c r="W167">
+        <v>2.7</v>
+      </c>
+      <c r="X167">
+        <v>2.9265273195778039</v>
+      </c>
+    </row>
+    <row r="168" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A168">
+        <v>2.7</v>
       </c>
       <c r="B168">
-        <v>8.526409751658143</v>
-      </c>
-      <c r="D168">
-        <v>2.9999999999999996</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A169" s="1">
-        <v>2.6999999999999997</v>
+        <v>2.5579229254973228</v>
+      </c>
+      <c r="W168">
+        <v>2.7</v>
+      </c>
+      <c r="X168">
+        <v>2.7935730981296172</v>
+      </c>
+    </row>
+    <row r="169" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A169">
+        <v>2.7</v>
       </c>
       <c r="B169">
-        <v>8.5253893903011786</v>
-      </c>
-      <c r="D169">
-        <v>2.9999999999999996</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A170" s="1">
-        <v>2.6999999999999997</v>
+        <v>2.5576168170903171</v>
+      </c>
+      <c r="W169">
+        <v>2.7</v>
+      </c>
+      <c r="X169">
+        <v>2.6506177906543802</v>
+      </c>
+    </row>
+    <row r="170" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A170">
+        <v>2.7</v>
       </c>
       <c r="B170">
-        <v>8.4329911734779373</v>
-      </c>
-      <c r="D170">
-        <v>2.9999999999999996</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A171" s="1">
-        <v>2.6999999999999997</v>
+        <v>2.5298973520433639</v>
+      </c>
+      <c r="W170">
+        <v>2.7</v>
+      </c>
+      <c r="X170">
+        <v>3.1288372853608339</v>
+      </c>
+    </row>
+    <row r="171" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A171">
+        <v>2.7</v>
       </c>
       <c r="B171">
-        <v>8.5171725246391432</v>
-      </c>
-      <c r="D171">
-        <v>2.9999999999999996</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A172" s="1">
-        <v>2.6999999999999997</v>
+        <v>2.5551517573916809</v>
+      </c>
+      <c r="W171">
+        <v>2.7</v>
+      </c>
+      <c r="X171">
+        <v>2.4540534914368699</v>
+      </c>
+    </row>
+    <row r="172" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A172">
+        <v>2.7</v>
       </c>
       <c r="B172">
-        <v>8.5767266304759531</v>
-      </c>
-      <c r="D172">
-        <v>2.9999999999999996</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A173" s="1">
-        <v>2.6999999999999997</v>
+        <v>2.5730179891427518</v>
+      </c>
+      <c r="W172">
+        <v>2.7</v>
+      </c>
+      <c r="X172">
+        <v>2.2853531496222139</v>
+      </c>
+    </row>
+    <row r="173" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A173">
+        <v>2.7</v>
       </c>
       <c r="B173">
-        <v>8.6024928648184797</v>
-      </c>
-      <c r="D173">
-        <v>2.9999999999999996</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A174" s="1">
-        <v>2.6999999999999997</v>
+        <v>2.5807478594453461</v>
+      </c>
+      <c r="W173">
+        <v>2.7</v>
+      </c>
+      <c r="X173">
+        <v>2.4118962686896421</v>
+      </c>
+    </row>
+    <row r="174" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A174">
+        <v>2.7</v>
       </c>
       <c r="B174">
-        <v>8.4502336500184683</v>
-      </c>
-      <c r="D174">
-        <v>2.9999999999999996</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A175" s="1">
-        <v>2.6999999999999997</v>
+        <v>2.5350700950055729</v>
+      </c>
+      <c r="W174">
+        <v>2.7</v>
+      </c>
+      <c r="X174">
+        <v>2.4521363664428582</v>
+      </c>
+    </row>
+    <row r="175" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A175">
+        <v>2.7</v>
       </c>
       <c r="B175">
-        <v>8.5447844963844162</v>
-      </c>
-      <c r="D175">
-        <v>2.9999999999999996</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A176" s="1">
-        <v>2.6999999999999997</v>
+        <v>2.563435348915295</v>
+      </c>
+      <c r="W175">
+        <v>2.7</v>
+      </c>
+      <c r="X175">
+        <v>2.4181131506189222</v>
+      </c>
+    </row>
+    <row r="176" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A176">
+        <v>2.7</v>
       </c>
       <c r="B176">
-        <v>8.5685237221062422</v>
-      </c>
-      <c r="D176">
-        <v>2.9999999999999996</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A177" s="1">
-        <v>2.6999999999999997</v>
+        <v>2.5705571166318362</v>
+      </c>
+      <c r="W176">
+        <v>2.7</v>
+      </c>
+      <c r="X176">
+        <v>2.3363850371926418</v>
+      </c>
+    </row>
+    <row r="177" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A177">
+        <v>2.7</v>
       </c>
       <c r="B177">
-        <v>8.6890706762184564</v>
-      </c>
-      <c r="D177">
-        <v>2.9999999999999996</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A178" s="1">
-        <v>2.6999999999999997</v>
+        <v>2.6067212028655402</v>
+      </c>
+      <c r="W177">
+        <v>2.7</v>
+      </c>
+      <c r="X177">
+        <v>2.5925538517157669</v>
+      </c>
+    </row>
+    <row r="178" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A178">
+        <v>2.7</v>
       </c>
       <c r="B178">
-        <v>8.6828511297656306</v>
-      </c>
-      <c r="D178">
-        <v>2.9999999999999996</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A179" s="1">
-        <v>2.6999999999999997</v>
+        <v>2.6048553389296321</v>
+      </c>
+      <c r="W178">
+        <v>2.7</v>
+      </c>
+      <c r="X178">
+        <v>2.4344335265316239</v>
+      </c>
+    </row>
+    <row r="179" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A179">
+        <v>2.7</v>
       </c>
       <c r="B179">
-        <v>8.6527159175970283</v>
-      </c>
-      <c r="D179">
-        <v>2.9999999999999996</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A180" s="1">
-        <v>2.6999999999999997</v>
+        <v>2.5958147752791061</v>
+      </c>
+      <c r="W179">
+        <v>2.7</v>
+      </c>
+      <c r="X179">
+        <v>2.4685868973185978</v>
+      </c>
+    </row>
+    <row r="180" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A180">
+        <v>2.7</v>
       </c>
       <c r="B180">
-        <v>8.7353197804964324</v>
-      </c>
-      <c r="D180">
-        <v>2.9999999999999996</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A181" s="1">
+        <v>2.6205959341489451</v>
+      </c>
+      <c r="W180">
+        <v>2.7</v>
+      </c>
+      <c r="X180">
+        <v>2.1833808699577131</v>
+      </c>
+    </row>
+    <row r="181" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A181">
         <v>3</v>
       </c>
       <c r="B181">
-        <v>9.8518016510348545</v>
-      </c>
-      <c r="D181">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A182" s="1">
+        <v>2.955540495310494</v>
+      </c>
+      <c r="W181">
         <v>3</v>
       </c>
+      <c r="X181">
+        <v>2.6178440696395242</v>
+      </c>
+    </row>
+    <row r="182" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A182">
+        <v>3</v>
+      </c>
       <c r="B182">
-        <v>9.8923971356777614</v>
-      </c>
-      <c r="D182">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A183" s="1">
+        <v>2.967719140703295</v>
+      </c>
+      <c r="W182">
         <v>3</v>
       </c>
+      <c r="X182">
+        <v>2.5869242999683379</v>
+      </c>
+    </row>
+    <row r="183" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A183">
+        <v>3</v>
+      </c>
       <c r="B183">
-        <v>9.8895872953412507</v>
-      </c>
-      <c r="D183">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A184" s="1">
+        <v>2.966876188602285</v>
+      </c>
+      <c r="W183">
         <v>3</v>
       </c>
+      <c r="X183">
+        <v>2.9029106756176968</v>
+      </c>
+    </row>
+    <row r="184" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A184">
+        <v>3</v>
+      </c>
       <c r="B184">
-        <v>9.8473682919414003</v>
-      </c>
-      <c r="D184">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A185" s="1">
+        <v>2.9542104875823232</v>
+      </c>
+      <c r="W184">
         <v>3</v>
       </c>
+      <c r="X184">
+        <v>2.6639536751443491</v>
+      </c>
+    </row>
+    <row r="185" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A185">
+        <v>3</v>
+      </c>
       <c r="B185">
-        <v>9.935871482168956</v>
-      </c>
-      <c r="D185">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A186" s="1">
+        <v>2.9807614446506081</v>
+      </c>
+      <c r="W185">
         <v>3</v>
       </c>
+      <c r="X185">
+        <v>2.6593879449617219</v>
+      </c>
+    </row>
+    <row r="186" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A186">
+        <v>3</v>
+      </c>
       <c r="B186">
-        <v>9.8540681326737385</v>
-      </c>
-      <c r="D186">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A187" s="1">
+        <v>2.9562204398019931</v>
+      </c>
+      <c r="W186">
         <v>3</v>
       </c>
+      <c r="X186">
+        <v>2.5900386497855439</v>
+      </c>
+    </row>
+    <row r="187" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A187">
+        <v>3</v>
+      </c>
       <c r="B187">
-        <v>9.9814412297668937</v>
-      </c>
-      <c r="D187">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A188" s="1">
+        <v>2.994432368930064</v>
+      </c>
+      <c r="W187">
         <v>3</v>
       </c>
+      <c r="X187">
+        <v>2.0746816362931848</v>
+      </c>
+    </row>
+    <row r="188" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A188">
+        <v>3</v>
+      </c>
       <c r="B188">
-        <v>9.883729392427135</v>
-      </c>
-      <c r="D188">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A189" s="1">
+        <v>2.96511881772813</v>
+      </c>
+      <c r="W188">
         <v>3</v>
       </c>
+      <c r="X188">
+        <v>2.7362950884263171</v>
+      </c>
+    </row>
+    <row r="189" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A189">
+        <v>3</v>
+      </c>
       <c r="B189">
-        <v>9.9132633111702901</v>
-      </c>
-      <c r="D189">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A190" s="1">
+        <v>2.9739789933510581</v>
+      </c>
+      <c r="W189">
         <v>3</v>
       </c>
+      <c r="X189">
+        <v>2.6189491377148069</v>
+      </c>
+    </row>
+    <row r="190" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A190">
+        <v>3</v>
+      </c>
       <c r="B190">
-        <v>9.8797973072764975</v>
-      </c>
-      <c r="D190">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A191" s="1">
+        <v>2.963939192182889</v>
+      </c>
+      <c r="W190">
         <v>3</v>
       </c>
+      <c r="X190">
+        <v>2.845463410278239</v>
+      </c>
+    </row>
+    <row r="191" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A191">
+        <v>3</v>
+      </c>
       <c r="B191">
-        <v>9.9836584678394686</v>
-      </c>
-      <c r="D191">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A192" s="1">
+        <v>2.9950975403518112</v>
+      </c>
+      <c r="W191">
         <v>3</v>
       </c>
+      <c r="X191">
+        <v>2.705149689900153</v>
+      </c>
+    </row>
+    <row r="192" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A192">
+        <v>3</v>
+      </c>
       <c r="B192">
-        <v>9.9079765447442796</v>
-      </c>
-      <c r="D192">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A193" s="1">
+        <v>2.9723929634232542</v>
+      </c>
+      <c r="W192">
         <v>3</v>
       </c>
+      <c r="X192">
+        <v>2.8650038714483341</v>
+      </c>
+    </row>
+    <row r="193" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A193">
+        <v>3</v>
+      </c>
       <c r="B193">
-        <v>9.9120337525101903</v>
-      </c>
-      <c r="D193">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A194" s="1">
+        <v>2.9736101257530159</v>
+      </c>
+      <c r="W193">
         <v>3</v>
       </c>
+      <c r="X193">
+        <v>2.90882099396983</v>
+      </c>
+    </row>
+    <row r="194" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A194">
+        <v>3</v>
+      </c>
       <c r="B194">
-        <v>10.224515197814251</v>
-      </c>
-      <c r="D194">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A195" s="1">
+        <v>3.067354559344377</v>
+      </c>
+      <c r="W194">
         <v>3</v>
       </c>
+      <c r="X194">
+        <v>2.8273890972780289</v>
+      </c>
+    </row>
+    <row r="195" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A195">
+        <v>3</v>
+      </c>
       <c r="B195">
-        <v>10.026989968460789</v>
-      </c>
-      <c r="D195">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A196" s="1">
+        <v>3.0080969905381778</v>
+      </c>
+      <c r="W195">
         <v>3</v>
       </c>
+      <c r="X195">
+        <v>2.599414617554018</v>
+      </c>
+    </row>
+    <row r="196" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A196">
+        <v>3</v>
+      </c>
       <c r="B196">
-        <v>10.188724292018939</v>
-      </c>
-      <c r="D196">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A197" s="1">
+        <v>3.0566172876055981</v>
+      </c>
+      <c r="W196">
         <v>3</v>
       </c>
+      <c r="X196">
+        <v>2.445360807806896</v>
+      </c>
+    </row>
+    <row r="197" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A197">
+        <v>3</v>
+      </c>
       <c r="B197">
-        <v>10.209447307111009</v>
-      </c>
-      <c r="D197">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A198" s="1">
+        <v>3.0628341921332809</v>
+      </c>
+      <c r="W197">
         <v>3</v>
       </c>
+      <c r="X197">
+        <v>2.622871238230605</v>
+      </c>
+    </row>
+    <row r="198" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A198">
+        <v>3</v>
+      </c>
       <c r="B198">
-        <v>10.05046455841542</v>
-      </c>
-      <c r="D198">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A199" s="1">
+        <v>3.0151393675246858</v>
+      </c>
+      <c r="W198">
         <v>3</v>
       </c>
+      <c r="X198">
+        <v>2.8231288886229109</v>
+      </c>
+    </row>
+    <row r="199" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A199">
+        <v>3</v>
+      </c>
       <c r="B199">
-        <v>10.16845663592661</v>
-      </c>
-      <c r="D199">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A200" s="1">
+        <v>3.0505369907779292</v>
+      </c>
+      <c r="W199">
         <v>3</v>
       </c>
+      <c r="X199">
+        <v>2.5855119821045069</v>
+      </c>
+    </row>
+    <row r="200" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A200">
+        <v>3</v>
+      </c>
       <c r="B200">
-        <v>10.042258394471871</v>
-      </c>
-      <c r="D200">
-        <v>3.3</v>
+        <v>3.01267751834148</v>
+      </c>
+      <c r="W200">
+        <v>3</v>
+      </c>
+      <c r="X200">
+        <v>2.5715616573961988</v>
       </c>
     </row>
   </sheetData>

--- a/Results/LinearRegressionResults_jan262025.xlsx
+++ b/Results/LinearRegressionResults_jan262025.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kx2\Documents\kxu\Acoustic-Touchscreen-Attachment-ML\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588B3C9D-CA5F-4965-AE4C-232EFE0DB6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E204326D-ACF6-4E28-A784-654AE7AACE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3467,6 +3468,3400 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Y-Axis Regression Results</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.3999999999999999E-2</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.3999999999999999E-2</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$1:$A$200</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$B$200</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>3.4712105482737947E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1450915344318773E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.275848081004405E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.7098770744247599E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.1988604070708458E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-6.9191245563432702E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.6371696025442553E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.504467033276093E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4842671611699171E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.8591622871096973E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.24275441094706271</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2039557906336551</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.28788758342832738</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.2001995163019554</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.30293666499371419</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.1399844015701657</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.2184341308690545</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.19407943291708379</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.26694803407202089</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.27094965913889091</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0345295502861001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.99923572628206436</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.91098523610201987</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.98607691304652256</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.97329112435363463</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.059269031843689</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.10305696477546</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.0505571422147411</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.170860033834797</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.007625579290311</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.61805290207261088</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.5962055883602897</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.60588713227190105</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.65407977405098983</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.6823641481831384</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.67538630850994075</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.728990744470698</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.1289816534341719</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.75964675191876374</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.9287648484458213</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.1573690278142821</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.1164411566522841</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.94903276273475079</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.158910351865208</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.096570352308829</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.1011679894884929</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.0833333487225949</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.193561316165676</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.162786050286398</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.16369403461715</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.0676034801782901</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.077042234472342</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.0107869862250409</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.90738604937997103</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.94829943481309265</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.071575428141136</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.008723566877114</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.0466842194376</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.94847646694410592</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.099468165486178</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.42470682886084</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.3611642041146781</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.627445617791258</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.379263274965167</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.403606635519592</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.4523273728600741</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.4827406699263559</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.3014630937186289</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.5250593680806239</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.331381348391977</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.484323886118345</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.4487011354087309</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.6393181798369389</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.5263863208352271</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.557369045101884</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.6063870605639159</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.461941615845253</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.5223130180401709</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.560681155432148</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.5432618043475921</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.517564476661454</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.5823009056918429</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.5892731117909931</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.497067613870632</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.604239408213529</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.4958517438044781</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.5881130326419479</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.428396719701331</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.3998354201642</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.3349883088103081</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.566403298216491</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.4311509591541429</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.494806967453568</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.407411986111041</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.481985346862229</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.6725794088411789</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.508887153962752</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.6525546098254631</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.4193266078347959</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.4232569527004471</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.5958232919538899</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.575562972291932</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.584226889827653</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.6645595587712929</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.6374995185962771</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.5689714826502461</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.6528102931465001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.5640885169014189</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.5484499935548881</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.580585415419923</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.6578484434631999</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.7858403346528799</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.7066958348933441</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.8307884028390169</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.7672927489441701</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.675779491802684</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.8220723279849891</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.7349365011440609</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.7590743407040801</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.4636695061640581</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2.1333293643140352</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2.1050936640405862</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2.1165911817553869</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2.1880328098396742</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2.2517894666460432</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.9284671190754621</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2.1980210083600848</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.9780967628579289</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2.0635098027086851</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2.12108223949304</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2.2851874423388998</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2.234221618226405</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2.1725018934381581</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2.2625088564862899</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2.235936760441509</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2.20099527287528</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2.2441153633585298</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2.059055215067195</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2.196977826184733</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2.1358337583358051</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2.0006481191217191</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2.1495629837745138</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2.0697219903257231</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2.0816309602429102</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2.1757373862568539</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2.0986620770723738</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2.0056514497517508</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2.1801296217642641</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2.1578485993531569</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2.208661903632978</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2.358693088435031</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2.254790704828741</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2.246964199206571</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2.322889043249011</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2.341639370824153</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2.3541891460612572</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2.2033808380517268</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2.2812203693995041</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2.298341862562749</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2.2056310995047048</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2.651215419293008</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2.5444590962065639</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2.541377622978819</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2.5854166089336039</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2.7062017497520379</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2.548472741845293</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2.6350210432871801</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2.6193410063024678</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2.812255275310326</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2.5845246563618129</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2.7711020233392372</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2.516295333218372</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2.5852719017941488</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2.5729335525595172</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2.6442167496355728</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2.6267167194213301</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2.5923754944742452</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2.6752618110684998</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2.6573396578241231</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2.574049200693926</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2.8820889851773241</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2.96139696534093</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2.8795249986856661</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2.8645403716394759</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2.9202772930506722</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2.9292327216539662</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2.8684241540869722</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2.98882048608287</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>2.8652451687316951</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>3.0598300058297858</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2.512199433638854</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>2.5869026914788251</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>2.4397385025663549</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>2.585820485274267</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>2.6861594749538309</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>2.0814447045551159</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>2.4482064637739271</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>2.6957659154717089</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>2.6285862676312899</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>2.5047549974371801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3AD0-4A3C-B7AA-068E1F8A6168}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="651166544"/>
+        <c:axId val="651167024"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="651166544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Actual Distance (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="651167024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="651167024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Predicted Distance</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (mm)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="651166544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Y-Axis Regression</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Results</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.49E-2</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.49E-2</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$R$1:$R$200</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$S$1:$S$200</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>0.22244760296702279</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25791384129154687</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24407635217563239</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23593310668224629</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25791069984458659</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2468042495012952</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.24424766487258151</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.23681365164428311</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19867884170307801</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.21928302405222411</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.33908705856941879</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.31460446214272508</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.33971340680970741</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.30750386584718831</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.40838876712179939</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.2785595957265059</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.34073098559072429</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.33541875839312502</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.38713730172022309</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.37109334386846632</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.89413420654348386</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.85937740649349337</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.84052144282991037</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.88455974790966962</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.86253457232479036</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.9096154529297138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.936843778255394</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.87109478206831881</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.91173960619414629</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.88840874056916164</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.71506435111849953</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.77917410501694917</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.78466379820854115</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.83801829887371326</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.78810074650069595</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.81213062560162541</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.78553969641087917</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.0197289796863129</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.8082695284891841</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.0147327412152261</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.97420018907848061</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.95530014090215332</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.83625699517409657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.94195834579507931</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.9427896181782387</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.94526890964147015</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.91102696054847598</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.93588458778003769</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.94264658974010729</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.9340568769536759</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.95706618425869294</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.95889652276187576</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.87956204694865647</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.75600259312249563</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.87375066038443805</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.85256339863477137</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.83678917615343806</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.89703465069127475</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.90363365127415562</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.89366850255417063</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.267670110703925</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.1569659341747709</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.214807731886701</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.1612487753316501</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.1975966867362471</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.182202533253204</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.1948345273955849</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.186204116063649</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.1366137271040131</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.1590262022996569</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.22843529771685</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.15990749929172</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.197049326281906</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.2070836838799861</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.1975455628702749</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.2366235532509291</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.2025495069112819</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.2447806933821399</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.2433333635082779</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.232704896919167</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.5386359690989979</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.505909874799698</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.5197657473034309</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.545129429376018</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.5353230576019139</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.5431755144010919</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.5368688142621489</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.5013237208316921</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.44998079642945</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.52934037251066</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.4944013684356681</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.5335753259002229</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.512079209720177</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.5226451507735701</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.5309101945442689</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.525670009304569</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.5188485774243929</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.5842730867417669</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.5284081844926549</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.5296479506121019</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.800303519317012</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.7723429065831771</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.782200400136283</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.8571928858818789</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.741780919983299</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.7470411954391949</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.796263240798375</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.7562851767410019</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.7502837294400211</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.7704178095174681</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.8003099731925969</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.8588166922919951</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.825683850373558</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.86287329237615</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.8726534556366301</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.8522917202460429</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.9143287932519679</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.8947789923130141</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.897453981570671</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.7926193851480789</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2.079343562681863</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2.125534596483007</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2.092318899380103</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2.1472644775140282</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2.1820634742599481</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2.0589694141311701</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2.1940392388706229</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2.1617973665242118</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2.1375278436138672</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2.1341004906316172</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2.2054157586128942</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2.173347194564506</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2.2409491451106192</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2.3214099505128161</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2.2084838420504771</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2.226228216320266</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2.3362584593876221</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2.2056609244272352</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2.2226062981917001</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2.263198919741392</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2.2907928942825539</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2.37322786851604</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2.2458515030649271</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2.225233393228343</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2.324856704978536</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2.2603098308494012</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2.2942713090595821</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2.338858808955806</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2.2776689129642591</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2.395250220975143</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2.373096974472801</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2.3212493953844979</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2.3232389412244392</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2.4130219399900028</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2.373014203182962</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2.3866133081365528</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2.28850764482825</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2.337782936955954</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2.371850540196931</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2.3137854499751431</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2.951577540563775</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2.876319749243351</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2.870359436605177</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2.9496876499289471</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2.899382479849685</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2.8620709979055969</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2.906387001345685</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2.9568821181119418</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2.851835365890302</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2.789835913356185</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2.676576127584688</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2.687574012688962</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2.7465235852441769</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2.6711142558998091</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2.7297405088551732</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2.724538159968517</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2.7418833213570011</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2.7529789438057999</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2.7361640411171488</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2.7177539183060588</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2.9471365575704951</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2.997751176470743</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2.989905320451967</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2.9415697325085119</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2.982812375327526</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2.96065862493937</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>3.078862418719766</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>3.0013126972120081</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>3.0212156547655198</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>3.030995173953166</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2.8316790412088082</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>2.8815397638098972</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>2.8947041256400681</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>2.7224773204490091</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>2.901408808267433</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>2.646428931655358</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>2.7184255289978481</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>2.7627458385139358</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>2.8750376514143809</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>2.8653825199760452</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D890-43C0-A684-33666FFA1DF1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1076616544"/>
+        <c:axId val="1076601664"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1076616544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Actual Distance (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1076601664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1076601664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Predicted Distance (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1076616544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3508,6 +6903,86 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4579,6 +8054,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4589,7 +9096,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>200</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -4636,6 +9143,83 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0804C810-3AD7-3018-830E-4A2379DEE1A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E276F4C9-919A-0B81-5306-7525DD87A909}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19BCABF2-C4AB-704E-AEED-D4689927A0DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4945,8 +9529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A229" sqref="A229:XFD229"/>
+    <sheetView topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T176" sqref="T176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7756,4 +12340,2820 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A54795E-42BC-48B7-A82F-77488CA505CF}">
+  <dimension ref="A1:S200"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AG5" sqref="AG5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>0.3</v>
+      </c>
+      <c r="B1">
+        <v>3.4712105482737947E-2</v>
+      </c>
+      <c r="R1">
+        <v>0.3</v>
+      </c>
+      <c r="S1">
+        <v>0.22244760296702279</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0.3</v>
+      </c>
+      <c r="B2">
+        <v>4.1450915344318773E-2</v>
+      </c>
+      <c r="R2">
+        <v>0.3</v>
+      </c>
+      <c r="S2">
+        <v>0.25791384129154687</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>0.3</v>
+      </c>
+      <c r="B3">
+        <v>-1.275848081004405E-2</v>
+      </c>
+      <c r="R3">
+        <v>0.3</v>
+      </c>
+      <c r="S3">
+        <v>0.24407635217563239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>0.3</v>
+      </c>
+      <c r="B4">
+        <v>-2.7098770744247599E-2</v>
+      </c>
+      <c r="R4">
+        <v>0.3</v>
+      </c>
+      <c r="S4">
+        <v>0.23593310668224629</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>0.3</v>
+      </c>
+      <c r="B5">
+        <v>-2.1988604070708458E-2</v>
+      </c>
+      <c r="R5">
+        <v>0.3</v>
+      </c>
+      <c r="S5">
+        <v>0.25791069984458659</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>0.3</v>
+      </c>
+      <c r="B6">
+        <v>-6.9191245563432702E-2</v>
+      </c>
+      <c r="R6">
+        <v>0.3</v>
+      </c>
+      <c r="S6">
+        <v>0.2468042495012952</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>0.3</v>
+      </c>
+      <c r="B7">
+        <v>-3.6371696025442553E-2</v>
+      </c>
+      <c r="R7">
+        <v>0.3</v>
+      </c>
+      <c r="S7">
+        <v>0.24424766487258151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>0.3</v>
+      </c>
+      <c r="B8">
+        <v>-3.504467033276093E-2</v>
+      </c>
+      <c r="R8">
+        <v>0.3</v>
+      </c>
+      <c r="S8">
+        <v>0.23681365164428311</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>0.3</v>
+      </c>
+      <c r="B9">
+        <v>2.4842671611699171E-2</v>
+      </c>
+      <c r="R9">
+        <v>0.3</v>
+      </c>
+      <c r="S9">
+        <v>0.19867884170307801</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>0.3</v>
+      </c>
+      <c r="B10">
+        <v>4.8591622871096973E-3</v>
+      </c>
+      <c r="R10">
+        <v>0.3</v>
+      </c>
+      <c r="S10">
+        <v>0.21928302405222411</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>0.3</v>
+      </c>
+      <c r="B11">
+        <v>0.24275441094706271</v>
+      </c>
+      <c r="R11">
+        <v>0.3</v>
+      </c>
+      <c r="S11">
+        <v>0.33908705856941879</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>0.3</v>
+      </c>
+      <c r="B12">
+        <v>0.2039557906336551</v>
+      </c>
+      <c r="R12">
+        <v>0.3</v>
+      </c>
+      <c r="S12">
+        <v>0.31460446214272508</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>0.3</v>
+      </c>
+      <c r="B13">
+        <v>0.28788758342832738</v>
+      </c>
+      <c r="R13">
+        <v>0.3</v>
+      </c>
+      <c r="S13">
+        <v>0.33971340680970741</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>0.3</v>
+      </c>
+      <c r="B14">
+        <v>0.2001995163019554</v>
+      </c>
+      <c r="R14">
+        <v>0.3</v>
+      </c>
+      <c r="S14">
+        <v>0.30750386584718831</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>0.3</v>
+      </c>
+      <c r="B15">
+        <v>0.30293666499371419</v>
+      </c>
+      <c r="R15">
+        <v>0.3</v>
+      </c>
+      <c r="S15">
+        <v>0.40838876712179939</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>0.3</v>
+      </c>
+      <c r="B16">
+        <v>0.1399844015701657</v>
+      </c>
+      <c r="R16">
+        <v>0.3</v>
+      </c>
+      <c r="S16">
+        <v>0.2785595957265059</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>0.3</v>
+      </c>
+      <c r="B17">
+        <v>0.2184341308690545</v>
+      </c>
+      <c r="R17">
+        <v>0.3</v>
+      </c>
+      <c r="S17">
+        <v>0.34073098559072429</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>0.3</v>
+      </c>
+      <c r="B18">
+        <v>0.19407943291708379</v>
+      </c>
+      <c r="R18">
+        <v>0.3</v>
+      </c>
+      <c r="S18">
+        <v>0.33541875839312502</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>0.3</v>
+      </c>
+      <c r="B19">
+        <v>0.26694803407202089</v>
+      </c>
+      <c r="R19">
+        <v>0.3</v>
+      </c>
+      <c r="S19">
+        <v>0.38713730172022309</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>0.3</v>
+      </c>
+      <c r="B20">
+        <v>0.27094965913889091</v>
+      </c>
+      <c r="R20">
+        <v>0.3</v>
+      </c>
+      <c r="S20">
+        <v>0.37109334386846632</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>0.6</v>
+      </c>
+      <c r="B21">
+        <v>1.0345295502861001</v>
+      </c>
+      <c r="R21">
+        <v>0.6</v>
+      </c>
+      <c r="S21">
+        <v>0.89413420654348386</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>0.6</v>
+      </c>
+      <c r="B22">
+        <v>0.99923572628206436</v>
+      </c>
+      <c r="R22">
+        <v>0.6</v>
+      </c>
+      <c r="S22">
+        <v>0.85937740649349337</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>0.6</v>
+      </c>
+      <c r="B23">
+        <v>0.91098523610201987</v>
+      </c>
+      <c r="R23">
+        <v>0.6</v>
+      </c>
+      <c r="S23">
+        <v>0.84052144282991037</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>0.6</v>
+      </c>
+      <c r="B24">
+        <v>0.98607691304652256</v>
+      </c>
+      <c r="R24">
+        <v>0.6</v>
+      </c>
+      <c r="S24">
+        <v>0.88455974790966962</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>0.6</v>
+      </c>
+      <c r="B25">
+        <v>0.97329112435363463</v>
+      </c>
+      <c r="R25">
+        <v>0.6</v>
+      </c>
+      <c r="S25">
+        <v>0.86253457232479036</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>0.6</v>
+      </c>
+      <c r="B26">
+        <v>1.059269031843689</v>
+      </c>
+      <c r="R26">
+        <v>0.6</v>
+      </c>
+      <c r="S26">
+        <v>0.9096154529297138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>0.6</v>
+      </c>
+      <c r="B27">
+        <v>1.10305696477546</v>
+      </c>
+      <c r="R27">
+        <v>0.6</v>
+      </c>
+      <c r="S27">
+        <v>0.936843778255394</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>0.6</v>
+      </c>
+      <c r="B28">
+        <v>1.0505571422147411</v>
+      </c>
+      <c r="R28">
+        <v>0.6</v>
+      </c>
+      <c r="S28">
+        <v>0.87109478206831881</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>0.6</v>
+      </c>
+      <c r="B29">
+        <v>1.170860033834797</v>
+      </c>
+      <c r="R29">
+        <v>0.6</v>
+      </c>
+      <c r="S29">
+        <v>0.91173960619414629</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>0.6</v>
+      </c>
+      <c r="B30">
+        <v>1.007625579290311</v>
+      </c>
+      <c r="R30">
+        <v>0.6</v>
+      </c>
+      <c r="S30">
+        <v>0.88840874056916164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>0.6</v>
+      </c>
+      <c r="B31">
+        <v>0.61805290207261088</v>
+      </c>
+      <c r="R31">
+        <v>0.6</v>
+      </c>
+      <c r="S31">
+        <v>0.71506435111849953</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>0.6</v>
+      </c>
+      <c r="B32">
+        <v>0.5962055883602897</v>
+      </c>
+      <c r="R32">
+        <v>0.6</v>
+      </c>
+      <c r="S32">
+        <v>0.77917410501694917</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>0.6</v>
+      </c>
+      <c r="B33">
+        <v>0.60588713227190105</v>
+      </c>
+      <c r="R33">
+        <v>0.6</v>
+      </c>
+      <c r="S33">
+        <v>0.78466379820854115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>0.6</v>
+      </c>
+      <c r="B34">
+        <v>0.65407977405098983</v>
+      </c>
+      <c r="R34">
+        <v>0.6</v>
+      </c>
+      <c r="S34">
+        <v>0.83801829887371326</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>0.6</v>
+      </c>
+      <c r="B35">
+        <v>0.6823641481831384</v>
+      </c>
+      <c r="R35">
+        <v>0.6</v>
+      </c>
+      <c r="S35">
+        <v>0.78810074650069595</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>0.6</v>
+      </c>
+      <c r="B36">
+        <v>0.67538630850994075</v>
+      </c>
+      <c r="R36">
+        <v>0.6</v>
+      </c>
+      <c r="S36">
+        <v>0.81213062560162541</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>0.6</v>
+      </c>
+      <c r="B37">
+        <v>0.728990744470698</v>
+      </c>
+      <c r="R37">
+        <v>0.6</v>
+      </c>
+      <c r="S37">
+        <v>0.78553969641087917</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>0.6</v>
+      </c>
+      <c r="B38">
+        <v>1.1289816534341719</v>
+      </c>
+      <c r="R38">
+        <v>0.6</v>
+      </c>
+      <c r="S38">
+        <v>1.0197289796863129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>0.6</v>
+      </c>
+      <c r="B39">
+        <v>0.75964675191876374</v>
+      </c>
+      <c r="R39">
+        <v>0.6</v>
+      </c>
+      <c r="S39">
+        <v>0.8082695284891841</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>0.6</v>
+      </c>
+      <c r="B40">
+        <v>0.9287648484458213</v>
+      </c>
+      <c r="R40">
+        <v>0.6</v>
+      </c>
+      <c r="S40">
+        <v>1.0147327412152261</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>0.9</v>
+      </c>
+      <c r="B41">
+        <v>1.1573690278142821</v>
+      </c>
+      <c r="R41">
+        <v>0.9</v>
+      </c>
+      <c r="S41">
+        <v>0.97420018907848061</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>0.9</v>
+      </c>
+      <c r="B42">
+        <v>1.1164411566522841</v>
+      </c>
+      <c r="R42">
+        <v>0.9</v>
+      </c>
+      <c r="S42">
+        <v>0.95530014090215332</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>0.9</v>
+      </c>
+      <c r="B43">
+        <v>0.94903276273475079</v>
+      </c>
+      <c r="R43">
+        <v>0.9</v>
+      </c>
+      <c r="S43">
+        <v>0.83625699517409657</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>0.9</v>
+      </c>
+      <c r="B44">
+        <v>1.158910351865208</v>
+      </c>
+      <c r="R44">
+        <v>0.9</v>
+      </c>
+      <c r="S44">
+        <v>0.94195834579507931</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>0.9</v>
+      </c>
+      <c r="B45">
+        <v>1.096570352308829</v>
+      </c>
+      <c r="R45">
+        <v>0.9</v>
+      </c>
+      <c r="S45">
+        <v>0.9427896181782387</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>0.9</v>
+      </c>
+      <c r="B46">
+        <v>1.1011679894884929</v>
+      </c>
+      <c r="R46">
+        <v>0.9</v>
+      </c>
+      <c r="S46">
+        <v>0.94526890964147015</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>0.9</v>
+      </c>
+      <c r="B47">
+        <v>1.0833333487225949</v>
+      </c>
+      <c r="R47">
+        <v>0.9</v>
+      </c>
+      <c r="S47">
+        <v>0.91102696054847598</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>0.9</v>
+      </c>
+      <c r="B48">
+        <v>1.193561316165676</v>
+      </c>
+      <c r="R48">
+        <v>0.9</v>
+      </c>
+      <c r="S48">
+        <v>0.93588458778003769</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>0.9</v>
+      </c>
+      <c r="B49">
+        <v>1.162786050286398</v>
+      </c>
+      <c r="R49">
+        <v>0.9</v>
+      </c>
+      <c r="S49">
+        <v>0.94264658974010729</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>0.9</v>
+      </c>
+      <c r="B50">
+        <v>1.16369403461715</v>
+      </c>
+      <c r="R50">
+        <v>0.9</v>
+      </c>
+      <c r="S50">
+        <v>0.9340568769536759</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>0.9</v>
+      </c>
+      <c r="B51">
+        <v>1.0676034801782901</v>
+      </c>
+      <c r="R51">
+        <v>0.9</v>
+      </c>
+      <c r="S51">
+        <v>0.95706618425869294</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>0.9</v>
+      </c>
+      <c r="B52">
+        <v>1.077042234472342</v>
+      </c>
+      <c r="R52">
+        <v>0.9</v>
+      </c>
+      <c r="S52">
+        <v>0.95889652276187576</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>0.9</v>
+      </c>
+      <c r="B53">
+        <v>1.0107869862250409</v>
+      </c>
+      <c r="R53">
+        <v>0.9</v>
+      </c>
+      <c r="S53">
+        <v>0.87956204694865647</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>0.9</v>
+      </c>
+      <c r="B54">
+        <v>0.90738604937997103</v>
+      </c>
+      <c r="R54">
+        <v>0.9</v>
+      </c>
+      <c r="S54">
+        <v>0.75600259312249563</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>0.9</v>
+      </c>
+      <c r="B55">
+        <v>0.94829943481309265</v>
+      </c>
+      <c r="R55">
+        <v>0.9</v>
+      </c>
+      <c r="S55">
+        <v>0.87375066038443805</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>0.9</v>
+      </c>
+      <c r="B56">
+        <v>1.071575428141136</v>
+      </c>
+      <c r="R56">
+        <v>0.9</v>
+      </c>
+      <c r="S56">
+        <v>0.85256339863477137</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>0.9</v>
+      </c>
+      <c r="B57">
+        <v>1.008723566877114</v>
+      </c>
+      <c r="R57">
+        <v>0.9</v>
+      </c>
+      <c r="S57">
+        <v>0.83678917615343806</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>0.9</v>
+      </c>
+      <c r="B58">
+        <v>1.0466842194376</v>
+      </c>
+      <c r="R58">
+        <v>0.9</v>
+      </c>
+      <c r="S58">
+        <v>0.89703465069127475</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>0.9</v>
+      </c>
+      <c r="B59">
+        <v>0.94847646694410592</v>
+      </c>
+      <c r="R59">
+        <v>0.9</v>
+      </c>
+      <c r="S59">
+        <v>0.90363365127415562</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>0.9</v>
+      </c>
+      <c r="B60">
+        <v>1.099468165486178</v>
+      </c>
+      <c r="R60">
+        <v>0.9</v>
+      </c>
+      <c r="S60">
+        <v>0.89366850255417063</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>1.2</v>
+      </c>
+      <c r="B61">
+        <v>1.42470682886084</v>
+      </c>
+      <c r="R61">
+        <v>1.2</v>
+      </c>
+      <c r="S61">
+        <v>1.267670110703925</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>1.2</v>
+      </c>
+      <c r="B62">
+        <v>1.3611642041146781</v>
+      </c>
+      <c r="R62">
+        <v>1.2</v>
+      </c>
+      <c r="S62">
+        <v>1.1569659341747709</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>1.2</v>
+      </c>
+      <c r="B63">
+        <v>1.627445617791258</v>
+      </c>
+      <c r="R63">
+        <v>1.2</v>
+      </c>
+      <c r="S63">
+        <v>1.214807731886701</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>1.2</v>
+      </c>
+      <c r="B64">
+        <v>1.379263274965167</v>
+      </c>
+      <c r="R64">
+        <v>1.2</v>
+      </c>
+      <c r="S64">
+        <v>1.1612487753316501</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>1.2</v>
+      </c>
+      <c r="B65">
+        <v>1.403606635519592</v>
+      </c>
+      <c r="R65">
+        <v>1.2</v>
+      </c>
+      <c r="S65">
+        <v>1.1975966867362471</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>1.2</v>
+      </c>
+      <c r="B66">
+        <v>1.4523273728600741</v>
+      </c>
+      <c r="R66">
+        <v>1.2</v>
+      </c>
+      <c r="S66">
+        <v>1.182202533253204</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>1.2</v>
+      </c>
+      <c r="B67">
+        <v>1.4827406699263559</v>
+      </c>
+      <c r="R67">
+        <v>1.2</v>
+      </c>
+      <c r="S67">
+        <v>1.1948345273955849</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>1.2</v>
+      </c>
+      <c r="B68">
+        <v>1.3014630937186289</v>
+      </c>
+      <c r="R68">
+        <v>1.2</v>
+      </c>
+      <c r="S68">
+        <v>1.186204116063649</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>1.2</v>
+      </c>
+      <c r="B69">
+        <v>1.5250593680806239</v>
+      </c>
+      <c r="R69">
+        <v>1.2</v>
+      </c>
+      <c r="S69">
+        <v>1.1366137271040131</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>1.2</v>
+      </c>
+      <c r="B70">
+        <v>1.331381348391977</v>
+      </c>
+      <c r="R70">
+        <v>1.2</v>
+      </c>
+      <c r="S70">
+        <v>1.1590262022996569</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>1.2</v>
+      </c>
+      <c r="B71">
+        <v>1.484323886118345</v>
+      </c>
+      <c r="R71">
+        <v>1.2</v>
+      </c>
+      <c r="S71">
+        <v>1.22843529771685</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>1.2</v>
+      </c>
+      <c r="B72">
+        <v>1.4487011354087309</v>
+      </c>
+      <c r="R72">
+        <v>1.2</v>
+      </c>
+      <c r="S72">
+        <v>1.15990749929172</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>1.2</v>
+      </c>
+      <c r="B73">
+        <v>1.6393181798369389</v>
+      </c>
+      <c r="R73">
+        <v>1.2</v>
+      </c>
+      <c r="S73">
+        <v>1.197049326281906</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>1.2</v>
+      </c>
+      <c r="B74">
+        <v>1.5263863208352271</v>
+      </c>
+      <c r="R74">
+        <v>1.2</v>
+      </c>
+      <c r="S74">
+        <v>1.2070836838799861</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>1.2</v>
+      </c>
+      <c r="B75">
+        <v>1.557369045101884</v>
+      </c>
+      <c r="R75">
+        <v>1.2</v>
+      </c>
+      <c r="S75">
+        <v>1.1975455628702749</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>1.2</v>
+      </c>
+      <c r="B76">
+        <v>1.6063870605639159</v>
+      </c>
+      <c r="R76">
+        <v>1.2</v>
+      </c>
+      <c r="S76">
+        <v>1.2366235532509291</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>1.2</v>
+      </c>
+      <c r="B77">
+        <v>1.461941615845253</v>
+      </c>
+      <c r="R77">
+        <v>1.2</v>
+      </c>
+      <c r="S77">
+        <v>1.2025495069112819</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>1.2</v>
+      </c>
+      <c r="B78">
+        <v>1.5223130180401709</v>
+      </c>
+      <c r="R78">
+        <v>1.2</v>
+      </c>
+      <c r="S78">
+        <v>1.2447806933821399</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>1.2</v>
+      </c>
+      <c r="B79">
+        <v>1.560681155432148</v>
+      </c>
+      <c r="R79">
+        <v>1.2</v>
+      </c>
+      <c r="S79">
+        <v>1.2433333635082779</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>1.2</v>
+      </c>
+      <c r="B80">
+        <v>1.5432618043475921</v>
+      </c>
+      <c r="R80">
+        <v>1.2</v>
+      </c>
+      <c r="S80">
+        <v>1.232704896919167</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>1.5</v>
+      </c>
+      <c r="B81">
+        <v>1.517564476661454</v>
+      </c>
+      <c r="R81">
+        <v>1.5</v>
+      </c>
+      <c r="S81">
+        <v>1.5386359690989979</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>1.5</v>
+      </c>
+      <c r="B82">
+        <v>1.5823009056918429</v>
+      </c>
+      <c r="R82">
+        <v>1.5</v>
+      </c>
+      <c r="S82">
+        <v>1.505909874799698</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>1.5</v>
+      </c>
+      <c r="B83">
+        <v>1.5892731117909931</v>
+      </c>
+      <c r="R83">
+        <v>1.5</v>
+      </c>
+      <c r="S83">
+        <v>1.5197657473034309</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>1.5</v>
+      </c>
+      <c r="B84">
+        <v>1.497067613870632</v>
+      </c>
+      <c r="R84">
+        <v>1.5</v>
+      </c>
+      <c r="S84">
+        <v>1.545129429376018</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>1.5</v>
+      </c>
+      <c r="B85">
+        <v>1.604239408213529</v>
+      </c>
+      <c r="R85">
+        <v>1.5</v>
+      </c>
+      <c r="S85">
+        <v>1.5353230576019139</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>1.5</v>
+      </c>
+      <c r="B86">
+        <v>1.4958517438044781</v>
+      </c>
+      <c r="R86">
+        <v>1.5</v>
+      </c>
+      <c r="S86">
+        <v>1.5431755144010919</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>1.5</v>
+      </c>
+      <c r="B87">
+        <v>1.5881130326419479</v>
+      </c>
+      <c r="R87">
+        <v>1.5</v>
+      </c>
+      <c r="S87">
+        <v>1.5368688142621489</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>1.5</v>
+      </c>
+      <c r="B88">
+        <v>1.428396719701331</v>
+      </c>
+      <c r="R88">
+        <v>1.5</v>
+      </c>
+      <c r="S88">
+        <v>1.5013237208316921</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>1.5</v>
+      </c>
+      <c r="B89">
+        <v>1.3998354201642</v>
+      </c>
+      <c r="R89">
+        <v>1.5</v>
+      </c>
+      <c r="S89">
+        <v>1.44998079642945</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>1.5</v>
+      </c>
+      <c r="B90">
+        <v>1.3349883088103081</v>
+      </c>
+      <c r="R90">
+        <v>1.5</v>
+      </c>
+      <c r="S90">
+        <v>1.52934037251066</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>1.5</v>
+      </c>
+      <c r="B91">
+        <v>1.566403298216491</v>
+      </c>
+      <c r="R91">
+        <v>1.5</v>
+      </c>
+      <c r="S91">
+        <v>1.4944013684356681</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>1.5</v>
+      </c>
+      <c r="B92">
+        <v>1.4311509591541429</v>
+      </c>
+      <c r="R92">
+        <v>1.5</v>
+      </c>
+      <c r="S92">
+        <v>1.5335753259002229</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>1.5</v>
+      </c>
+      <c r="B93">
+        <v>1.494806967453568</v>
+      </c>
+      <c r="R93">
+        <v>1.5</v>
+      </c>
+      <c r="S93">
+        <v>1.512079209720177</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>1.5</v>
+      </c>
+      <c r="B94">
+        <v>1.407411986111041</v>
+      </c>
+      <c r="R94">
+        <v>1.5</v>
+      </c>
+      <c r="S94">
+        <v>1.5226451507735701</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>1.5</v>
+      </c>
+      <c r="B95">
+        <v>1.481985346862229</v>
+      </c>
+      <c r="R95">
+        <v>1.5</v>
+      </c>
+      <c r="S95">
+        <v>1.5309101945442689</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>1.5</v>
+      </c>
+      <c r="B96">
+        <v>1.6725794088411789</v>
+      </c>
+      <c r="R96">
+        <v>1.5</v>
+      </c>
+      <c r="S96">
+        <v>1.525670009304569</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>1.5</v>
+      </c>
+      <c r="B97">
+        <v>1.508887153962752</v>
+      </c>
+      <c r="R97">
+        <v>1.5</v>
+      </c>
+      <c r="S97">
+        <v>1.5188485774243929</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>1.5</v>
+      </c>
+      <c r="B98">
+        <v>1.6525546098254631</v>
+      </c>
+      <c r="R98">
+        <v>1.5</v>
+      </c>
+      <c r="S98">
+        <v>1.5842730867417669</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>1.5</v>
+      </c>
+      <c r="B99">
+        <v>1.4193266078347959</v>
+      </c>
+      <c r="R99">
+        <v>1.5</v>
+      </c>
+      <c r="S99">
+        <v>1.5284081844926549</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>1.5</v>
+      </c>
+      <c r="B100">
+        <v>1.4232569527004471</v>
+      </c>
+      <c r="R100">
+        <v>1.5</v>
+      </c>
+      <c r="S100">
+        <v>1.5296479506121019</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>1.8</v>
+      </c>
+      <c r="B101">
+        <v>1.5958232919538899</v>
+      </c>
+      <c r="R101">
+        <v>1.8</v>
+      </c>
+      <c r="S101">
+        <v>1.800303519317012</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>1.8</v>
+      </c>
+      <c r="B102">
+        <v>1.575562972291932</v>
+      </c>
+      <c r="R102">
+        <v>1.8</v>
+      </c>
+      <c r="S102">
+        <v>1.7723429065831771</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>1.8</v>
+      </c>
+      <c r="B103">
+        <v>1.584226889827653</v>
+      </c>
+      <c r="R103">
+        <v>1.8</v>
+      </c>
+      <c r="S103">
+        <v>1.782200400136283</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>1.8</v>
+      </c>
+      <c r="B104">
+        <v>1.6645595587712929</v>
+      </c>
+      <c r="R104">
+        <v>1.8</v>
+      </c>
+      <c r="S104">
+        <v>1.8571928858818789</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>1.8</v>
+      </c>
+      <c r="B105">
+        <v>1.6374995185962771</v>
+      </c>
+      <c r="R105">
+        <v>1.8</v>
+      </c>
+      <c r="S105">
+        <v>1.741780919983299</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>1.8</v>
+      </c>
+      <c r="B106">
+        <v>1.5689714826502461</v>
+      </c>
+      <c r="R106">
+        <v>1.8</v>
+      </c>
+      <c r="S106">
+        <v>1.7470411954391949</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>1.8</v>
+      </c>
+      <c r="B107">
+        <v>1.6528102931465001</v>
+      </c>
+      <c r="R107">
+        <v>1.8</v>
+      </c>
+      <c r="S107">
+        <v>1.796263240798375</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>1.8</v>
+      </c>
+      <c r="B108">
+        <v>1.5640885169014189</v>
+      </c>
+      <c r="R108">
+        <v>1.8</v>
+      </c>
+      <c r="S108">
+        <v>1.7562851767410019</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>1.8</v>
+      </c>
+      <c r="B109">
+        <v>1.5484499935548881</v>
+      </c>
+      <c r="R109">
+        <v>1.8</v>
+      </c>
+      <c r="S109">
+        <v>1.7502837294400211</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>1.8</v>
+      </c>
+      <c r="B110">
+        <v>1.580585415419923</v>
+      </c>
+      <c r="R110">
+        <v>1.8</v>
+      </c>
+      <c r="S110">
+        <v>1.7704178095174681</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>1.8</v>
+      </c>
+      <c r="B111">
+        <v>1.6578484434631999</v>
+      </c>
+      <c r="R111">
+        <v>1.8</v>
+      </c>
+      <c r="S111">
+        <v>1.8003099731925969</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>1.8</v>
+      </c>
+      <c r="B112">
+        <v>1.7858403346528799</v>
+      </c>
+      <c r="R112">
+        <v>1.8</v>
+      </c>
+      <c r="S112">
+        <v>1.8588166922919951</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>1.8</v>
+      </c>
+      <c r="B113">
+        <v>1.7066958348933441</v>
+      </c>
+      <c r="R113">
+        <v>1.8</v>
+      </c>
+      <c r="S113">
+        <v>1.825683850373558</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>1.8</v>
+      </c>
+      <c r="B114">
+        <v>1.8307884028390169</v>
+      </c>
+      <c r="R114">
+        <v>1.8</v>
+      </c>
+      <c r="S114">
+        <v>1.86287329237615</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>1.8</v>
+      </c>
+      <c r="B115">
+        <v>1.7672927489441701</v>
+      </c>
+      <c r="R115">
+        <v>1.8</v>
+      </c>
+      <c r="S115">
+        <v>1.8726534556366301</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>1.8</v>
+      </c>
+      <c r="B116">
+        <v>1.675779491802684</v>
+      </c>
+      <c r="R116">
+        <v>1.8</v>
+      </c>
+      <c r="S116">
+        <v>1.8522917202460429</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>1.8</v>
+      </c>
+      <c r="B117">
+        <v>1.8220723279849891</v>
+      </c>
+      <c r="R117">
+        <v>1.8</v>
+      </c>
+      <c r="S117">
+        <v>1.9143287932519679</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>1.8</v>
+      </c>
+      <c r="B118">
+        <v>1.7349365011440609</v>
+      </c>
+      <c r="R118">
+        <v>1.8</v>
+      </c>
+      <c r="S118">
+        <v>1.8947789923130141</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>1.8</v>
+      </c>
+      <c r="B119">
+        <v>1.7590743407040801</v>
+      </c>
+      <c r="R119">
+        <v>1.8</v>
+      </c>
+      <c r="S119">
+        <v>1.897453981570671</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>1.8</v>
+      </c>
+      <c r="B120">
+        <v>1.4636695061640581</v>
+      </c>
+      <c r="R120">
+        <v>1.8</v>
+      </c>
+      <c r="S120">
+        <v>1.7926193851480789</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>2.1</v>
+      </c>
+      <c r="B121">
+        <v>2.1333293643140352</v>
+      </c>
+      <c r="R121">
+        <v>2.1</v>
+      </c>
+      <c r="S121">
+        <v>2.079343562681863</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>2.1</v>
+      </c>
+      <c r="B122">
+        <v>2.1050936640405862</v>
+      </c>
+      <c r="R122">
+        <v>2.1</v>
+      </c>
+      <c r="S122">
+        <v>2.125534596483007</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>2.1</v>
+      </c>
+      <c r="B123">
+        <v>2.1165911817553869</v>
+      </c>
+      <c r="R123">
+        <v>2.1</v>
+      </c>
+      <c r="S123">
+        <v>2.092318899380103</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>2.1</v>
+      </c>
+      <c r="B124">
+        <v>2.1880328098396742</v>
+      </c>
+      <c r="R124">
+        <v>2.1</v>
+      </c>
+      <c r="S124">
+        <v>2.1472644775140282</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>2.1</v>
+      </c>
+      <c r="B125">
+        <v>2.2517894666460432</v>
+      </c>
+      <c r="R125">
+        <v>2.1</v>
+      </c>
+      <c r="S125">
+        <v>2.1820634742599481</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>2.1</v>
+      </c>
+      <c r="B126">
+        <v>1.9284671190754621</v>
+      </c>
+      <c r="R126">
+        <v>2.1</v>
+      </c>
+      <c r="S126">
+        <v>2.0589694141311701</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>2.1</v>
+      </c>
+      <c r="B127">
+        <v>2.1980210083600848</v>
+      </c>
+      <c r="R127">
+        <v>2.1</v>
+      </c>
+      <c r="S127">
+        <v>2.1940392388706229</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>2.1</v>
+      </c>
+      <c r="B128">
+        <v>1.9780967628579289</v>
+      </c>
+      <c r="R128">
+        <v>2.1</v>
+      </c>
+      <c r="S128">
+        <v>2.1617973665242118</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>2.1</v>
+      </c>
+      <c r="B129">
+        <v>2.0635098027086851</v>
+      </c>
+      <c r="R129">
+        <v>2.1</v>
+      </c>
+      <c r="S129">
+        <v>2.1375278436138672</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>2.1</v>
+      </c>
+      <c r="B130">
+        <v>2.12108223949304</v>
+      </c>
+      <c r="R130">
+        <v>2.1</v>
+      </c>
+      <c r="S130">
+        <v>2.1341004906316172</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>2.1</v>
+      </c>
+      <c r="B131">
+        <v>2.2851874423388998</v>
+      </c>
+      <c r="R131">
+        <v>2.1</v>
+      </c>
+      <c r="S131">
+        <v>2.2054157586128942</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>2.1</v>
+      </c>
+      <c r="B132">
+        <v>2.234221618226405</v>
+      </c>
+      <c r="R132">
+        <v>2.1</v>
+      </c>
+      <c r="S132">
+        <v>2.173347194564506</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>2.1</v>
+      </c>
+      <c r="B133">
+        <v>2.1725018934381581</v>
+      </c>
+      <c r="R133">
+        <v>2.1</v>
+      </c>
+      <c r="S133">
+        <v>2.2409491451106192</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>2.1</v>
+      </c>
+      <c r="B134">
+        <v>2.2625088564862899</v>
+      </c>
+      <c r="R134">
+        <v>2.1</v>
+      </c>
+      <c r="S134">
+        <v>2.3214099505128161</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>2.1</v>
+      </c>
+      <c r="B135">
+        <v>2.235936760441509</v>
+      </c>
+      <c r="R135">
+        <v>2.1</v>
+      </c>
+      <c r="S135">
+        <v>2.2084838420504771</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>2.1</v>
+      </c>
+      <c r="B136">
+        <v>2.20099527287528</v>
+      </c>
+      <c r="R136">
+        <v>2.1</v>
+      </c>
+      <c r="S136">
+        <v>2.226228216320266</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>2.1</v>
+      </c>
+      <c r="B137">
+        <v>2.2441153633585298</v>
+      </c>
+      <c r="R137">
+        <v>2.1</v>
+      </c>
+      <c r="S137">
+        <v>2.3362584593876221</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>2.1</v>
+      </c>
+      <c r="B138">
+        <v>2.059055215067195</v>
+      </c>
+      <c r="R138">
+        <v>2.1</v>
+      </c>
+      <c r="S138">
+        <v>2.2056609244272352</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <v>2.1</v>
+      </c>
+      <c r="B139">
+        <v>2.196977826184733</v>
+      </c>
+      <c r="R139">
+        <v>2.1</v>
+      </c>
+      <c r="S139">
+        <v>2.2226062981917001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <v>2.1</v>
+      </c>
+      <c r="B140">
+        <v>2.1358337583358051</v>
+      </c>
+      <c r="R140">
+        <v>2.1</v>
+      </c>
+      <c r="S140">
+        <v>2.263198919741392</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>2.4</v>
+      </c>
+      <c r="B141">
+        <v>2.0006481191217191</v>
+      </c>
+      <c r="R141">
+        <v>2.4</v>
+      </c>
+      <c r="S141">
+        <v>2.2907928942825539</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>2.4</v>
+      </c>
+      <c r="B142">
+        <v>2.1495629837745138</v>
+      </c>
+      <c r="R142">
+        <v>2.4</v>
+      </c>
+      <c r="S142">
+        <v>2.37322786851604</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>2.4</v>
+      </c>
+      <c r="B143">
+        <v>2.0697219903257231</v>
+      </c>
+      <c r="R143">
+        <v>2.4</v>
+      </c>
+      <c r="S143">
+        <v>2.2458515030649271</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>2.4</v>
+      </c>
+      <c r="B144">
+        <v>2.0816309602429102</v>
+      </c>
+      <c r="R144">
+        <v>2.4</v>
+      </c>
+      <c r="S144">
+        <v>2.225233393228343</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <v>2.4</v>
+      </c>
+      <c r="B145">
+        <v>2.1757373862568539</v>
+      </c>
+      <c r="R145">
+        <v>2.4</v>
+      </c>
+      <c r="S145">
+        <v>2.324856704978536</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <v>2.4</v>
+      </c>
+      <c r="B146">
+        <v>2.0986620770723738</v>
+      </c>
+      <c r="R146">
+        <v>2.4</v>
+      </c>
+      <c r="S146">
+        <v>2.2603098308494012</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <v>2.4</v>
+      </c>
+      <c r="B147">
+        <v>2.0056514497517508</v>
+      </c>
+      <c r="R147">
+        <v>2.4</v>
+      </c>
+      <c r="S147">
+        <v>2.2942713090595821</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A148">
+        <v>2.4</v>
+      </c>
+      <c r="B148">
+        <v>2.1801296217642641</v>
+      </c>
+      <c r="R148">
+        <v>2.4</v>
+      </c>
+      <c r="S148">
+        <v>2.338858808955806</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A149">
+        <v>2.4</v>
+      </c>
+      <c r="B149">
+        <v>2.1578485993531569</v>
+      </c>
+      <c r="R149">
+        <v>2.4</v>
+      </c>
+      <c r="S149">
+        <v>2.2776689129642591</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <v>2.4</v>
+      </c>
+      <c r="B150">
+        <v>2.208661903632978</v>
+      </c>
+      <c r="R150">
+        <v>2.4</v>
+      </c>
+      <c r="S150">
+        <v>2.395250220975143</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A151">
+        <v>2.4</v>
+      </c>
+      <c r="B151">
+        <v>2.358693088435031</v>
+      </c>
+      <c r="R151">
+        <v>2.4</v>
+      </c>
+      <c r="S151">
+        <v>2.373096974472801</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A152">
+        <v>2.4</v>
+      </c>
+      <c r="B152">
+        <v>2.254790704828741</v>
+      </c>
+      <c r="R152">
+        <v>2.4</v>
+      </c>
+      <c r="S152">
+        <v>2.3212493953844979</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A153">
+        <v>2.4</v>
+      </c>
+      <c r="B153">
+        <v>2.246964199206571</v>
+      </c>
+      <c r="R153">
+        <v>2.4</v>
+      </c>
+      <c r="S153">
+        <v>2.3232389412244392</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A154">
+        <v>2.4</v>
+      </c>
+      <c r="B154">
+        <v>2.322889043249011</v>
+      </c>
+      <c r="R154">
+        <v>2.4</v>
+      </c>
+      <c r="S154">
+        <v>2.4130219399900028</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A155">
+        <v>2.4</v>
+      </c>
+      <c r="B155">
+        <v>2.341639370824153</v>
+      </c>
+      <c r="R155">
+        <v>2.4</v>
+      </c>
+      <c r="S155">
+        <v>2.373014203182962</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A156">
+        <v>2.4</v>
+      </c>
+      <c r="B156">
+        <v>2.3541891460612572</v>
+      </c>
+      <c r="R156">
+        <v>2.4</v>
+      </c>
+      <c r="S156">
+        <v>2.3866133081365528</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A157">
+        <v>2.4</v>
+      </c>
+      <c r="B157">
+        <v>2.2033808380517268</v>
+      </c>
+      <c r="R157">
+        <v>2.4</v>
+      </c>
+      <c r="S157">
+        <v>2.28850764482825</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A158">
+        <v>2.4</v>
+      </c>
+      <c r="B158">
+        <v>2.2812203693995041</v>
+      </c>
+      <c r="R158">
+        <v>2.4</v>
+      </c>
+      <c r="S158">
+        <v>2.337782936955954</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A159">
+        <v>2.4</v>
+      </c>
+      <c r="B159">
+        <v>2.298341862562749</v>
+      </c>
+      <c r="R159">
+        <v>2.4</v>
+      </c>
+      <c r="S159">
+        <v>2.371850540196931</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A160">
+        <v>2.4</v>
+      </c>
+      <c r="B160">
+        <v>2.2056310995047048</v>
+      </c>
+      <c r="R160">
+        <v>2.4</v>
+      </c>
+      <c r="S160">
+        <v>2.3137854499751431</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A161">
+        <v>2.7</v>
+      </c>
+      <c r="B161">
+        <v>2.651215419293008</v>
+      </c>
+      <c r="R161">
+        <v>2.7</v>
+      </c>
+      <c r="S161">
+        <v>2.951577540563775</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A162">
+        <v>2.7</v>
+      </c>
+      <c r="B162">
+        <v>2.5444590962065639</v>
+      </c>
+      <c r="R162">
+        <v>2.7</v>
+      </c>
+      <c r="S162">
+        <v>2.876319749243351</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A163">
+        <v>2.7</v>
+      </c>
+      <c r="B163">
+        <v>2.541377622978819</v>
+      </c>
+      <c r="R163">
+        <v>2.7</v>
+      </c>
+      <c r="S163">
+        <v>2.870359436605177</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A164">
+        <v>2.7</v>
+      </c>
+      <c r="B164">
+        <v>2.5854166089336039</v>
+      </c>
+      <c r="R164">
+        <v>2.7</v>
+      </c>
+      <c r="S164">
+        <v>2.9496876499289471</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A165">
+        <v>2.7</v>
+      </c>
+      <c r="B165">
+        <v>2.7062017497520379</v>
+      </c>
+      <c r="R165">
+        <v>2.7</v>
+      </c>
+      <c r="S165">
+        <v>2.899382479849685</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A166">
+        <v>2.7</v>
+      </c>
+      <c r="B166">
+        <v>2.548472741845293</v>
+      </c>
+      <c r="R166">
+        <v>2.7</v>
+      </c>
+      <c r="S166">
+        <v>2.8620709979055969</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A167">
+        <v>2.7</v>
+      </c>
+      <c r="B167">
+        <v>2.6350210432871801</v>
+      </c>
+      <c r="R167">
+        <v>2.7</v>
+      </c>
+      <c r="S167">
+        <v>2.906387001345685</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A168">
+        <v>2.7</v>
+      </c>
+      <c r="B168">
+        <v>2.6193410063024678</v>
+      </c>
+      <c r="R168">
+        <v>2.7</v>
+      </c>
+      <c r="S168">
+        <v>2.9568821181119418</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A169">
+        <v>2.7</v>
+      </c>
+      <c r="B169">
+        <v>2.812255275310326</v>
+      </c>
+      <c r="R169">
+        <v>2.7</v>
+      </c>
+      <c r="S169">
+        <v>2.851835365890302</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A170">
+        <v>2.7</v>
+      </c>
+      <c r="B170">
+        <v>2.5845246563618129</v>
+      </c>
+      <c r="R170">
+        <v>2.7</v>
+      </c>
+      <c r="S170">
+        <v>2.789835913356185</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A171">
+        <v>2.7</v>
+      </c>
+      <c r="B171">
+        <v>2.7711020233392372</v>
+      </c>
+      <c r="R171">
+        <v>2.7</v>
+      </c>
+      <c r="S171">
+        <v>2.676576127584688</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A172">
+        <v>2.7</v>
+      </c>
+      <c r="B172">
+        <v>2.516295333218372</v>
+      </c>
+      <c r="R172">
+        <v>2.7</v>
+      </c>
+      <c r="S172">
+        <v>2.687574012688962</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A173">
+        <v>2.7</v>
+      </c>
+      <c r="B173">
+        <v>2.5852719017941488</v>
+      </c>
+      <c r="R173">
+        <v>2.7</v>
+      </c>
+      <c r="S173">
+        <v>2.7465235852441769</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A174">
+        <v>2.7</v>
+      </c>
+      <c r="B174">
+        <v>2.5729335525595172</v>
+      </c>
+      <c r="R174">
+        <v>2.7</v>
+      </c>
+      <c r="S174">
+        <v>2.6711142558998091</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A175">
+        <v>2.7</v>
+      </c>
+      <c r="B175">
+        <v>2.6442167496355728</v>
+      </c>
+      <c r="R175">
+        <v>2.7</v>
+      </c>
+      <c r="S175">
+        <v>2.7297405088551732</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A176">
+        <v>2.7</v>
+      </c>
+      <c r="B176">
+        <v>2.6267167194213301</v>
+      </c>
+      <c r="R176">
+        <v>2.7</v>
+      </c>
+      <c r="S176">
+        <v>2.724538159968517</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A177">
+        <v>2.7</v>
+      </c>
+      <c r="B177">
+        <v>2.5923754944742452</v>
+      </c>
+      <c r="R177">
+        <v>2.7</v>
+      </c>
+      <c r="S177">
+        <v>2.7418833213570011</v>
+      </c>
+    </row>
+    <row r="178" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A178">
+        <v>2.7</v>
+      </c>
+      <c r="B178">
+        <v>2.6752618110684998</v>
+      </c>
+      <c r="R178">
+        <v>2.7</v>
+      </c>
+      <c r="S178">
+        <v>2.7529789438057999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A179">
+        <v>2.7</v>
+      </c>
+      <c r="B179">
+        <v>2.6573396578241231</v>
+      </c>
+      <c r="R179">
+        <v>2.7</v>
+      </c>
+      <c r="S179">
+        <v>2.7361640411171488</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A180">
+        <v>2.7</v>
+      </c>
+      <c r="B180">
+        <v>2.574049200693926</v>
+      </c>
+      <c r="R180">
+        <v>2.7</v>
+      </c>
+      <c r="S180">
+        <v>2.7177539183060588</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A181">
+        <v>3</v>
+      </c>
+      <c r="B181">
+        <v>2.8820889851773241</v>
+      </c>
+      <c r="R181">
+        <v>3</v>
+      </c>
+      <c r="S181">
+        <v>2.9471365575704951</v>
+      </c>
+    </row>
+    <row r="182" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A182">
+        <v>3</v>
+      </c>
+      <c r="B182">
+        <v>2.96139696534093</v>
+      </c>
+      <c r="R182">
+        <v>3</v>
+      </c>
+      <c r="S182">
+        <v>2.997751176470743</v>
+      </c>
+    </row>
+    <row r="183" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A183">
+        <v>3</v>
+      </c>
+      <c r="B183">
+        <v>2.8795249986856661</v>
+      </c>
+      <c r="R183">
+        <v>3</v>
+      </c>
+      <c r="S183">
+        <v>2.989905320451967</v>
+      </c>
+    </row>
+    <row r="184" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A184">
+        <v>3</v>
+      </c>
+      <c r="B184">
+        <v>2.8645403716394759</v>
+      </c>
+      <c r="R184">
+        <v>3</v>
+      </c>
+      <c r="S184">
+        <v>2.9415697325085119</v>
+      </c>
+    </row>
+    <row r="185" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A185">
+        <v>3</v>
+      </c>
+      <c r="B185">
+        <v>2.9202772930506722</v>
+      </c>
+      <c r="R185">
+        <v>3</v>
+      </c>
+      <c r="S185">
+        <v>2.982812375327526</v>
+      </c>
+    </row>
+    <row r="186" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A186">
+        <v>3</v>
+      </c>
+      <c r="B186">
+        <v>2.9292327216539662</v>
+      </c>
+      <c r="R186">
+        <v>3</v>
+      </c>
+      <c r="S186">
+        <v>2.96065862493937</v>
+      </c>
+    </row>
+    <row r="187" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A187">
+        <v>3</v>
+      </c>
+      <c r="B187">
+        <v>2.8684241540869722</v>
+      </c>
+      <c r="R187">
+        <v>3</v>
+      </c>
+      <c r="S187">
+        <v>3.078862418719766</v>
+      </c>
+    </row>
+    <row r="188" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A188">
+        <v>3</v>
+      </c>
+      <c r="B188">
+        <v>2.98882048608287</v>
+      </c>
+      <c r="R188">
+        <v>3</v>
+      </c>
+      <c r="S188">
+        <v>3.0013126972120081</v>
+      </c>
+    </row>
+    <row r="189" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A189">
+        <v>3</v>
+      </c>
+      <c r="B189">
+        <v>2.8652451687316951</v>
+      </c>
+      <c r="R189">
+        <v>3</v>
+      </c>
+      <c r="S189">
+        <v>3.0212156547655198</v>
+      </c>
+    </row>
+    <row r="190" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A190">
+        <v>3</v>
+      </c>
+      <c r="B190">
+        <v>3.0598300058297858</v>
+      </c>
+      <c r="R190">
+        <v>3</v>
+      </c>
+      <c r="S190">
+        <v>3.030995173953166</v>
+      </c>
+    </row>
+    <row r="191" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A191">
+        <v>3</v>
+      </c>
+      <c r="B191">
+        <v>2.512199433638854</v>
+      </c>
+      <c r="R191">
+        <v>3</v>
+      </c>
+      <c r="S191">
+        <v>2.8316790412088082</v>
+      </c>
+    </row>
+    <row r="192" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A192">
+        <v>3</v>
+      </c>
+      <c r="B192">
+        <v>2.5869026914788251</v>
+      </c>
+      <c r="R192">
+        <v>3</v>
+      </c>
+      <c r="S192">
+        <v>2.8815397638098972</v>
+      </c>
+    </row>
+    <row r="193" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A193">
+        <v>3</v>
+      </c>
+      <c r="B193">
+        <v>2.4397385025663549</v>
+      </c>
+      <c r="R193">
+        <v>3</v>
+      </c>
+      <c r="S193">
+        <v>2.8947041256400681</v>
+      </c>
+    </row>
+    <row r="194" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A194">
+        <v>3</v>
+      </c>
+      <c r="B194">
+        <v>2.585820485274267</v>
+      </c>
+      <c r="R194">
+        <v>3</v>
+      </c>
+      <c r="S194">
+        <v>2.7224773204490091</v>
+      </c>
+    </row>
+    <row r="195" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A195">
+        <v>3</v>
+      </c>
+      <c r="B195">
+        <v>2.6861594749538309</v>
+      </c>
+      <c r="R195">
+        <v>3</v>
+      </c>
+      <c r="S195">
+        <v>2.901408808267433</v>
+      </c>
+    </row>
+    <row r="196" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A196">
+        <v>3</v>
+      </c>
+      <c r="B196">
+        <v>2.0814447045551159</v>
+      </c>
+      <c r="R196">
+        <v>3</v>
+      </c>
+      <c r="S196">
+        <v>2.646428931655358</v>
+      </c>
+    </row>
+    <row r="197" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A197">
+        <v>3</v>
+      </c>
+      <c r="B197">
+        <v>2.4482064637739271</v>
+      </c>
+      <c r="R197">
+        <v>3</v>
+      </c>
+      <c r="S197">
+        <v>2.7184255289978481</v>
+      </c>
+    </row>
+    <row r="198" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A198">
+        <v>3</v>
+      </c>
+      <c r="B198">
+        <v>2.6957659154717089</v>
+      </c>
+      <c r="R198">
+        <v>3</v>
+      </c>
+      <c r="S198">
+        <v>2.7627458385139358</v>
+      </c>
+    </row>
+    <row r="199" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A199">
+        <v>3</v>
+      </c>
+      <c r="B199">
+        <v>2.6285862676312899</v>
+      </c>
+      <c r="R199">
+        <v>3</v>
+      </c>
+      <c r="S199">
+        <v>2.8750376514143809</v>
+      </c>
+    </row>
+    <row r="200" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A200">
+        <v>3</v>
+      </c>
+      <c r="B200">
+        <v>2.5047549974371801</v>
+      </c>
+      <c r="R200">
+        <v>3</v>
+      </c>
+      <c r="S200">
+        <v>2.8653825199760452</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>